--- a/src/views/map/components/transmission-line/components/对照表.xlsx
+++ b/src/views/map/components/transmission-line/components/对照表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="95">
   <si>
     <t>序号</t>
   </si>
@@ -40,6 +40,9 @@
     <t>SICODE</t>
   </si>
   <si>
+    <t>SvgIconName</t>
+  </si>
+  <si>
     <t>SIC</t>
   </si>
   <si>
@@ -61,6 +64,27 @@
     <t>00</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t>enName: '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">', </t>
+  </si>
+  <si>
+    <t>cnName:  '</t>
+  </si>
+  <si>
+    <t>' }</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
     <t>道路</t>
   </si>
   <si>
@@ -85,15 +109,27 @@
     <t>树木</t>
   </si>
   <si>
+    <t>mapPlantOtherTree</t>
+  </si>
+  <si>
     <t>杨树</t>
   </si>
   <si>
+    <t>mapPlantPoplar</t>
+  </si>
+  <si>
     <t>绿化树</t>
   </si>
   <si>
+    <t>mapPlantAfforestationTree</t>
+  </si>
+  <si>
     <t>杂树</t>
   </si>
   <si>
+    <t>mapPlantWeedTree</t>
+  </si>
+  <si>
     <t>漂浮物</t>
   </si>
   <si>
@@ -112,48 +148,84 @@
     <t>沟渠</t>
   </si>
   <si>
+    <t>mapRiverOther</t>
+  </si>
+  <si>
     <t>鱼塘</t>
   </si>
   <si>
+    <t>mapRiverFish</t>
+  </si>
+  <si>
     <t>河流</t>
   </si>
   <si>
+    <t>mapRiverDitch</t>
+  </si>
+  <si>
     <t>螃蟹塘</t>
   </si>
   <si>
+    <t>mapRiverCrab</t>
+  </si>
+  <si>
     <t>龙虾塘</t>
   </si>
   <si>
+    <t>mapRiverLobster</t>
+  </si>
+  <si>
     <t>运河</t>
   </si>
   <si>
     <t>05</t>
   </si>
   <si>
+    <t>mapRiverCannal</t>
+  </si>
+  <si>
     <t>废黄河</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
+    <t>mapRiverYellowRiver</t>
+  </si>
+  <si>
     <t>动态</t>
   </si>
   <si>
     <t>机械</t>
   </si>
   <si>
+    <t>mapMachOtherCar</t>
+  </si>
+  <si>
     <t>吊车</t>
   </si>
   <si>
+    <t>mapMachCrane</t>
+  </si>
+  <si>
     <t>塔吊</t>
   </si>
   <si>
+    <t>mapMachTowerCrane</t>
+  </si>
+  <si>
     <t>挖机</t>
   </si>
   <si>
+    <t>mapMachExcavator</t>
+  </si>
+  <si>
     <t>货车</t>
   </si>
   <si>
+    <t>mapMachTrack</t>
+  </si>
+  <si>
     <t>本体</t>
   </si>
   <si>
@@ -172,25 +244,49 @@
     <t>监测</t>
   </si>
   <si>
-    <t>图像</t>
-  </si>
-  <si>
-    <t>视频</t>
+    <t>mapMonitorOther</t>
+  </si>
+  <si>
+    <t>图像监控</t>
+  </si>
+  <si>
+    <t>mapMonitorPicture</t>
+  </si>
+  <si>
+    <t>视频监控</t>
+  </si>
+  <si>
+    <t>mapMonitorVideo</t>
   </si>
   <si>
     <t>故障监测仪</t>
   </si>
   <si>
+    <t>mapMonitorFault</t>
+  </si>
+  <si>
     <t>标识牌</t>
   </si>
   <si>
+    <t>mapSignOtherBoard</t>
+  </si>
+  <si>
     <t>高压警示牌</t>
   </si>
   <si>
+    <t>mapSignHighVoltageWarning</t>
+  </si>
+  <si>
     <t>禁止施工牌</t>
   </si>
   <si>
+    <t>mapSignProhibitionOfConstruction</t>
+  </si>
+  <si>
     <t>钓鱼牌</t>
+  </si>
+  <si>
+    <t>mapSignNoFishing</t>
   </si>
   <si>
     <t>保护</t>
@@ -213,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,36 +320,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,9 +338,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,11 +369,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,9 +407,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,8 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,28 +462,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,31 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,31 +500,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +542,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,25 +620,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,55 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,8 +688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,11 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,8 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,32 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -686,157 +762,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,8 +942,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1168,21 +1273,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="10" width="9" style="1"/>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="4.125" customWidth="1"/>
+    <col min="19" max="19" width="5.375" customWidth="1"/>
+    <col min="20" max="20" width="4.5" customWidth="1"/>
+    <col min="21" max="21" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:11">
+    <row r="1" ht="33" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1208,1557 +1321,2726 @@
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>B2&amp;D2&amp;F2&amp;H2&amp;J2</f>
         <v>SIC110100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="4" t="str">
+        <f>K2&amp;N2&amp;O2&amp;P2&amp;L2&amp;Q2&amp;R2&amp;I2&amp;S2</f>
+        <v>SIC110100:{ enName: '', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" ref="K3:K44" si="0">B3&amp;D3&amp;F3&amp;H3&amp;J3</f>
         <v>SIC110101</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="3"/>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="4" t="str">
+        <f>K3&amp;N3&amp;O3&amp;P3&amp;L3&amp;Q3&amp;R3&amp;I3&amp;S3</f>
+        <v>SIC110101:{ enName: '', cnName:  '道路' }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110102</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="4" t="str">
+        <f>K4&amp;N4&amp;O4&amp;P4&amp;L4&amp;Q4&amp;R4&amp;I4&amp;S4</f>
+        <v>SIC110102:{ enName: '', cnName:  '管道' }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110103</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="3"/>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="str">
+        <f>K5&amp;N5&amp;O5&amp;P5&amp;L5&amp;Q5&amp;R5&amp;I5&amp;S5</f>
+        <v>SIC110103:{ enName: '', cnName:  '楼房' }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110104</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="3"/>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f>K6&amp;N6&amp;O6&amp;P6&amp;L6&amp;Q6&amp;R6&amp;I6&amp;S6</f>
+        <v>SIC110104:{ enName: '', cnName:  '厂房' }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110200</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f>K7&amp;N7&amp;O7&amp;P7&amp;L7&amp;Q7&amp;R7&amp;I7&amp;S7</f>
+        <v>SIC110200:{ enName: 'mapPlantOtherTree', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110201</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="4" t="str">
+        <f t="shared" ref="U8:U44" si="1">K8&amp;N8&amp;O8&amp;P8&amp;L8&amp;Q8&amp;R8&amp;I8&amp;S8</f>
+        <v>SIC110201:{ enName: 'mapPlantPoplar', cnName:  '杨树' }</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110202</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110202:{ enName: 'mapPlantAfforestationTree', cnName:  '绿化树' }</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110203</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110203:{ enName: 'mapPlantWeedTree', cnName:  '杂树' }</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110300</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110300:{ enName: '', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110301</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="3"/>
+      <c r="N12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110301:{ enName: '', cnName:  '高炮' }</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110302</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="3"/>
+      <c r="N13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110302:{ enName: '', cnName:  '广告牌' }</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110303</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="3"/>
+      <c r="N14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110303:{ enName: '', cnName:  '气球' }</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110304</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="3"/>
+      <c r="N15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110304:{ enName: '', cnName:  '充气物' }</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110400</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110400:{ enName: 'mapRiverOther', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110401</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110401:{ enName: 'mapRiverFish', cnName:  '鱼塘' }</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110402</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110402:{ enName: 'mapRiverDitch', cnName:  '河流' }</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110403</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110403:{ enName: 'mapRiverCrab', cnName:  '螃蟹塘' }</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110404</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110404:{ enName: 'mapRiverLobster', cnName:  '龙虾塘' }</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110405</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110405:{ enName: 'mapRiverCannal', cnName:  '运河' }</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC110406</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC110406:{ enName: 'mapRiverYellowRiver', cnName:  '废黄河' }</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC120100</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC120100:{ enName: 'mapMachOtherCar', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC120101</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC120101:{ enName: 'mapMachCrane', cnName:  '吊车' }</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC120102</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC120102:{ enName: 'mapMachTowerCrane', cnName:  '塔吊' }</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC120103</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC120103:{ enName: 'mapMachExcavator', cnName:  '挖机' }</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC120104</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC120104:{ enName: 'mapMachTrack', cnName:  '货车' }</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC210101</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="3"/>
+      <c r="N28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC210101:{ enName: '', cnName:  '基础' }</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC210202</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="3"/>
+      <c r="N29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC210202:{ enName: '', cnName:  '杆塔' }</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC210303</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="3"/>
+      <c r="N30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC210303:{ enName: '', cnName:  '金具' }</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC210404</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="3"/>
+      <c r="N31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC210404:{ enName: '', cnName:  '螺栓' }</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220100</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220100:{ enName: 'mapMonitorOther', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>11</v>
+        <v>76</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220101</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220101:{ enName: 'mapMonitorPicture', cnName:  '图像监控' }</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220102</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220102:{ enName: 'mapMonitorVideo', cnName:  '视频监控' }</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220103</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220103:{ enName: 'mapMonitorFault', cnName:  '故障监测仪' }</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220200</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220200:{ enName: 'mapSignOtherBoard', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220201</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220201:{ enName: 'mapSignHighVoltageWarning', cnName:  '高压警示牌' }</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220202</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220202:{ enName: 'mapSignProhibitionOfConstruction', cnName:  '禁止施工牌' }</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220203</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220203:{ enName: 'mapSignNoFishing', cnName:  '钓鱼牌' }</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F40" s="2">
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="K40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220300</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="3"/>
+      <c r="N40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220300:{ enName: '', cnName:  '其他' }</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="K41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220301</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="3"/>
+      <c r="N41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220301:{ enName: '', cnName:  '防撞墩' }</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220302</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="3"/>
+      <c r="N42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220302:{ enName: '', cnName:  '防撞围栏' }</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2">
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220303</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="3"/>
+      <c r="N43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220303:{ enName: '', cnName:  '围栏' }</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="K44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIC220304</v>
       </c>
+      <c r="L44" s="3"/>
+      <c r="N44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SIC220304:{ enName: '', cnName:  '限高架' }</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K44">
+  <autoFilter ref="A1:L44">
     <extLst/>
   </autoFilter>
   <mergeCells count="4">

--- a/src/views/map/components/transmission-line/components/对照表.xlsx
+++ b/src/views/map/components/transmission-line/components/对照表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="120">
   <si>
     <t>序号</t>
   </si>
@@ -94,60 +94,10 @@
     <t>,</t>
   </si>
   <si>
-    <t>SIC110100:{ enName: 'mapBuildingOther', cnName:  '其他' },
-SIC110101:{ enName: 'mapBuildingRoad', cnName:  '道路' },
-SIC110102:{ enName: 'mapBuildingPiping', cnName:  '管道' },
-SIC110103:{ enName: 'mapBuildingFloor', cnName:  '楼房' },
-SIC110104:{ enName: 'mapBuildingFactory', cnName:  '厂房' },
-SIC110200:{ enName: 'mapPlantOtherTree', cnName:  '其他' },
-SIC110201:{ enName: 'mapPlantPoplar', cnName:  '杨树' },
-SIC110202:{ enName: 'mapPlantAfforestationTree', cnName:  '绿化树' },
-SIC110203:{ enName: 'mapPlantWeedTree', cnName:  '杂树' },
-SIC110300:{ enName: 'mapFloaterOther', cnName:  '其他' },
-SIC110301:{ enName: 'mapFloaterAntiaircraftAdvertising', cnName:  '高炮' },
-SIC110302:{ enName: 'mapFloaterBillBoard', cnName:  '广告牌' },
-SIC110303:{ enName: 'mapFloaterBalloon', cnName:  '气球' },
-SIC110304:{ enName: 'mapFloaterInflatableObject', cnName:  '充气物' },
-SIC110305:{ enName: 'mapFloaterLargeGreenhouse', cnName:  '大棚' },
-SIC110400:{ enName: 'mapRiverOther', cnName:  '其他' },
-SIC110401:{ enName: 'mapRiverFish', cnName:  '鱼塘' },
-SIC110402:{ enName: 'mapRiverDitch', cnName:  '河流' },
-SIC110403:{ enName: 'mapRiverCrab', cnName:  '螃蟹塘' },
-SIC110404:{ enName: 'mapRiverLobster', cnName:  '龙虾塘' },
-SIC110405:{ enName: 'mapRiverCannal', cnName:  '运河' },
-SIC110406:{ enName: 'mapRiverYellowRiver', cnName:  '废黄河' },
-SIC120100:{ enName: 'mapMachOtherCar', cnName:  '其他' },
-SIC120101:{ enName: 'mapMachCrane', cnName:  '吊车' },
-SIC120102:{ enName: 'mapMachTowerCrane', cnName:  '塔吊' },
-SIC120103:{ enName: 'mapMachExcavator', cnName:  '挖机' },
-SIC120104:{ enName: 'mapMachTrack', cnName:  '货车' },
-SIC210100:{ enName: 'mapTowerOther', cnName:  '其他' },
-SIC210101:{ enName: 'mapTowerBase', cnName:  '基础' },
-SIC210202:{ enName: 'mapTowerMaterial', cnName:  '塔材' },
-SIC210303:{ enName: 'mapTowerArmourClamp', cnName:  '金具' },
-SIC210404:{ enName: 'mapTowerBolt', cnName:  '螺栓' },
-SIC220100:{ enName: 'mapMonitorOther', cnName:  '其他' },
-SIC220101:{ enName: 'mapMonitorPicture', cnName:  '图像监控' },
-SIC220102:{ enName: 'mapMonitorVideo', cnName:  '视频监控' },
-SIC220103:{ enName: 'mapMonitorFault', cnName:  '故障监测仪' },
-SIC220200:{ enName: 'mapSignOtherBoard', cnName:  '其他' },
-SIC220201:{ enName: 'mapSignHighVoltageWarning', cnName:  '高压警示牌' },
-SIC220202:{ enName: 'mapSignProhibitionOfConstruction', cnName:  '禁止施工牌' },
-SIC220203:{ enName: 'mapSignNoFishing', cnName:  '钓鱼牌' },
-SIC220300:{ enName: 'mapProtectOther', cnName:  '其他' },
-SIC220301:{ enName: 'mapProtectCrashBearer', cnName:  '防撞墩' },
-SIC220302:{ enName: 'mapProtectCrashBarrier', cnName:  '防撞围栏' },
-SIC220303:{ enName: 'mapProtectRail', cnName:  '围栏' },
-SIC220304:{ enName: 'mapProtectHeightLimit', cnName:  '限高架' },</t>
-  </si>
-  <si>
     <t>道路</t>
   </si>
   <si>
     <t>mapBuildingRoad</t>
-  </si>
-  <si>
-    <t>cnName:  '</t>
   </si>
   <si>
     <t>管道</t>
@@ -1057,7 +1007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O46"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1425,7 +1372,7 @@
     <col min="19" max="19" width="9.125" customWidth="1"/>
     <col min="20" max="20" width="4.5" customWidth="1"/>
     <col min="21" max="21" width="72.375" customWidth="1"/>
-    <col min="22" max="22" width="85.375" customWidth="1"/>
+    <col min="22" max="22" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:21">
@@ -1470,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1498,7 +1445,7 @@
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="2" t="str">
@@ -1517,13 +1464,13 @@
       <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T2" s="5" t="s">
@@ -1533,9 +1480,6 @@
         <f>K2&amp;N2&amp;O2&amp;P2&amp;L2&amp;Q2&amp;R2&amp;I2&amp;S2&amp;T2</f>
         <v>SIC110100: { enName: 'mapBuildingOther', cnName: '其他' },</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2">
@@ -1563,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>14</v>
@@ -1573,7 +1517,7 @@
         <v>SIC110101</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>18</v>
@@ -1584,13 +1528,13 @@
       <c r="P3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T3" s="5" t="s">
@@ -1598,7 +1542,7 @@
       </c>
       <c r="U3" s="5" t="str">
         <f t="shared" ref="U3:U46" si="0">K3&amp;N3&amp;O3&amp;P3&amp;L3&amp;Q3&amp;R3&amp;I3&amp;S3&amp;T3</f>
-        <v>SIC110101: { enName: 'mapBuildingRoad', cnName:  '道路' },</v>
+        <v>SIC110101: { enName: 'mapBuildingRoad', cnName: '道路' },</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1627,17 +1571,17 @@
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>B4&amp;D4&amp;F4&amp;H4&amp;J4</f>
         <v>SIC110102</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>18</v>
@@ -1648,13 +1592,13 @@
       <c r="P4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T4" s="5" t="s">
@@ -1662,7 +1606,7 @@
       </c>
       <c r="U4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110102: { enName: 'mapBuildingPiping', cnName:  '管道' },</v>
+        <v>SIC110102: { enName: 'mapBuildingPiping', cnName: '管道' },</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1691,17 +1635,17 @@
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>B5&amp;D5&amp;F5&amp;H5&amp;J5</f>
         <v>SIC110103</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>18</v>
@@ -1712,13 +1656,13 @@
       <c r="P5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T5" s="5" t="s">
@@ -1726,7 +1670,7 @@
       </c>
       <c r="U5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110103: { enName: 'mapBuildingFloor', cnName:  '楼房' },</v>
+        <v>SIC110103: { enName: 'mapBuildingFloor', cnName: '楼房' },</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1755,17 +1699,17 @@
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>B6&amp;D6&amp;F6&amp;H6&amp;J6</f>
         <v>SIC110104</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>18</v>
@@ -1776,13 +1720,13 @@
       <c r="P6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T6" s="5" t="s">
@@ -1790,7 +1734,7 @@
       </c>
       <c r="U6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110104: { enName: 'mapBuildingFactory', cnName:  '厂房' },</v>
+        <v>SIC110104: { enName: 'mapBuildingFactory', cnName: '厂房' },</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1813,15 +1757,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="2" t="str">
@@ -1829,7 +1773,7 @@
         <v>SIC110200</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>18</v>
@@ -1840,13 +1784,13 @@
       <c r="P7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T7" s="5" t="s">
@@ -1854,7 +1798,7 @@
       </c>
       <c r="U7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110200: { enName: 'mapPlantOtherTree', cnName:  '其他' },</v>
+        <v>SIC110200: { enName: 'mapPlantOtherTree', cnName: '其他' },</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1877,15 +1821,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="2" t="str">
@@ -1893,7 +1837,7 @@
         <v>SIC110201</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>18</v>
@@ -1904,13 +1848,13 @@
       <c r="P8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T8" s="5" t="s">
@@ -1918,7 +1862,7 @@
       </c>
       <c r="U8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110201: { enName: 'mapPlantPoplar', cnName:  '杨树' },</v>
+        <v>SIC110201: { enName: 'mapPlantPoplar', cnName: '杨树' },</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1941,23 +1885,23 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="str">
         <f>B9&amp;D9&amp;F9&amp;H9&amp;J9</f>
         <v>SIC110202</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>18</v>
@@ -1968,13 +1912,13 @@
       <c r="P9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T9" s="5" t="s">
@@ -1982,7 +1926,7 @@
       </c>
       <c r="U9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110202: { enName: 'mapPlantAfforestationTree', cnName:  '绿化树' },</v>
+        <v>SIC110202: { enName: 'mapPlantAfforestationTree', cnName: '绿化树' },</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2005,23 +1949,23 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>B10&amp;D10&amp;F10&amp;H10&amp;J10</f>
         <v>SIC110203</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>18</v>
@@ -2032,13 +1976,13 @@
       <c r="P10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T10" s="5" t="s">
@@ -2046,7 +1990,7 @@
       </c>
       <c r="U10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110203: { enName: 'mapPlantWeedTree', cnName:  '杂树' },</v>
+        <v>SIC110203: { enName: 'mapPlantWeedTree', cnName: '杂树' },</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2069,15 +2013,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -2085,7 +2029,7 @@
         <v>SIC110300</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>18</v>
@@ -2096,13 +2040,13 @@
       <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T11" s="5" t="s">
@@ -2110,7 +2054,7 @@
       </c>
       <c r="U11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110300: { enName: 'mapFloaterOther', cnName:  '其他' },</v>
+        <v>SIC110300: { enName: 'mapFloaterOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2133,15 +2077,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -2149,7 +2093,7 @@
         <v>SIC110301</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>18</v>
@@ -2160,13 +2104,13 @@
       <c r="P12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T12" s="5" t="s">
@@ -2174,7 +2118,7 @@
       </c>
       <c r="U12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110301: { enName: 'mapFloaterAntiaircraftAdvertising', cnName:  '高炮' },</v>
+        <v>SIC110301: { enName: 'mapFloaterAntiaircraftAdvertising', cnName: '高炮' },</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2197,23 +2141,23 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>B13&amp;D13&amp;F13&amp;H13&amp;J13</f>
         <v>SIC110302</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>18</v>
@@ -2224,13 +2168,13 @@
       <c r="P13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T13" s="5" t="s">
@@ -2238,7 +2182,7 @@
       </c>
       <c r="U13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110302: { enName: 'mapFloaterBillBoard', cnName:  '广告牌' },</v>
+        <v>SIC110302: { enName: 'mapFloaterBillBoard', cnName: '广告牌' },</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2261,23 +2205,23 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>B14&amp;D14&amp;F14&amp;H14&amp;J14</f>
         <v>SIC110303</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>18</v>
@@ -2288,13 +2232,13 @@
       <c r="P14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T14" s="5" t="s">
@@ -2302,7 +2246,7 @@
       </c>
       <c r="U14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110303: { enName: 'mapFloaterBalloon', cnName:  '气球' },</v>
+        <v>SIC110303: { enName: 'mapFloaterBalloon', cnName: '气球' },</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2325,23 +2269,23 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>B15&amp;D15&amp;F15&amp;H15&amp;J15</f>
         <v>SIC110304</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>18</v>
@@ -2352,13 +2296,13 @@
       <c r="P15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T15" s="5" t="s">
@@ -2366,7 +2310,7 @@
       </c>
       <c r="U15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110304: { enName: 'mapFloaterInflatableObject', cnName:  '充气物' },</v>
+        <v>SIC110304: { enName: 'mapFloaterInflatableObject', cnName: '充气物' },</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2387,23 +2331,23 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>B16&amp;D16&amp;F16&amp;H16&amp;J16</f>
         <v>SIC110305</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>18</v>
@@ -2414,13 +2358,13 @@
       <c r="P16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T16" s="5" t="s">
@@ -2428,7 +2372,7 @@
       </c>
       <c r="U16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110305: { enName: 'mapFloaterLargeGreenhouse', cnName:  '大棚' },</v>
+        <v>SIC110305: { enName: 'mapFloaterLargeGreenhouse', cnName: '大棚' },</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2451,15 +2395,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="2" t="str">
@@ -2467,7 +2411,7 @@
         <v>SIC110400</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>18</v>
@@ -2478,13 +2422,13 @@
       <c r="P17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T17" s="5" t="s">
@@ -2492,7 +2436,7 @@
       </c>
       <c r="U17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110400: { enName: 'mapRiverOther', cnName:  '其他' },</v>
+        <v>SIC110400: { enName: 'mapRiverOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2515,15 +2459,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="2" t="str">
@@ -2531,7 +2475,7 @@
         <v>SIC110401</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>18</v>
@@ -2542,13 +2486,13 @@
       <c r="P18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T18" s="5" t="s">
@@ -2556,7 +2500,7 @@
       </c>
       <c r="U18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110401: { enName: 'mapRiverFish', cnName:  '鱼塘' },</v>
+        <v>SIC110401: { enName: 'mapRiverFish', cnName: '鱼塘' },</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2579,23 +2523,23 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC110402</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>18</v>
@@ -2606,13 +2550,13 @@
       <c r="P19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T19" s="5" t="s">
@@ -2620,7 +2564,7 @@
       </c>
       <c r="U19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110402: { enName: 'mapRiverDitch', cnName:  '河流' },</v>
+        <v>SIC110402: { enName: 'mapRiverDitch', cnName: '河流' },</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2643,23 +2587,23 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC110403</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>18</v>
@@ -2670,13 +2614,13 @@
       <c r="P20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T20" s="5" t="s">
@@ -2684,7 +2628,7 @@
       </c>
       <c r="U20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110403: { enName: 'mapRiverCrab', cnName:  '螃蟹塘' },</v>
+        <v>SIC110403: { enName: 'mapRiverCrab', cnName: '螃蟹塘' },</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2707,23 +2651,23 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC110404</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>18</v>
@@ -2734,13 +2678,13 @@
       <c r="P21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T21" s="5" t="s">
@@ -2748,7 +2692,7 @@
       </c>
       <c r="U21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110404: { enName: 'mapRiverLobster', cnName:  '龙虾塘' },</v>
+        <v>SIC110404: { enName: 'mapRiverLobster', cnName: '龙虾塘' },</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2771,23 +2715,23 @@
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC110405</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>18</v>
@@ -2798,13 +2742,13 @@
       <c r="P22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T22" s="5" t="s">
@@ -2812,7 +2756,7 @@
       </c>
       <c r="U22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110405: { enName: 'mapRiverCannal', cnName:  '运河' },</v>
+        <v>SIC110405: { enName: 'mapRiverCannal', cnName: '运河' },</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2835,23 +2779,23 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC110406</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>18</v>
@@ -2862,13 +2806,13 @@
       <c r="P23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T23" s="5" t="s">
@@ -2876,7 +2820,7 @@
       </c>
       <c r="U23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC110406: { enName: 'mapRiverYellowRiver', cnName:  '废黄河' },</v>
+        <v>SIC110406: { enName: 'mapRiverYellowRiver', cnName: '废黄河' },</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2893,21 +2837,21 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="2" t="str">
@@ -2915,7 +2859,7 @@
         <v>SIC120100</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>18</v>
@@ -2926,13 +2870,13 @@
       <c r="P24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T24" s="5" t="s">
@@ -2940,7 +2884,7 @@
       </c>
       <c r="U24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC120100: { enName: 'mapMachOtherCar', cnName:  '其他' },</v>
+        <v>SIC120100: { enName: 'mapMachOtherCar', cnName: '其他' },</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2957,21 +2901,21 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="2" t="str">
@@ -2979,7 +2923,7 @@
         <v>SIC120101</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>18</v>
@@ -2990,13 +2934,13 @@
       <c r="P25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T25" s="5" t="s">
@@ -3004,7 +2948,7 @@
       </c>
       <c r="U25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC120101: { enName: 'mapMachCrane', cnName:  '吊车' },</v>
+        <v>SIC120101: { enName: 'mapMachCrane', cnName: '吊车' },</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -3021,29 +2965,29 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>30</v>
+        <v>77</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC120102</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>18</v>
@@ -3054,13 +2998,13 @@
       <c r="P26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T26" s="5" t="s">
@@ -3068,7 +3012,7 @@
       </c>
       <c r="U26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC120102: { enName: 'mapMachTowerCrane', cnName:  '塔吊' },</v>
+        <v>SIC120102: { enName: 'mapMachTowerCrane', cnName: '塔吊' },</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3085,29 +3029,29 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC120103</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>18</v>
@@ -3118,13 +3062,13 @@
       <c r="P27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T27" s="5" t="s">
@@ -3132,7 +3076,7 @@
       </c>
       <c r="U27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC120103: { enName: 'mapMachExcavator', cnName:  '挖机' },</v>
+        <v>SIC120103: { enName: 'mapMachExcavator', cnName: '挖机' },</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -3149,29 +3093,29 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>SIC120104</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>18</v>
@@ -3182,13 +3126,13 @@
       <c r="P28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T28" s="5" t="s">
@@ -3196,7 +3140,7 @@
       </c>
       <c r="U28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC120104: { enName: 'mapMachTrack', cnName:  '货车' },</v>
+        <v>SIC120104: { enName: 'mapMachTrack', cnName: '货车' },</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3207,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
@@ -3219,15 +3163,15 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="2" t="str">
@@ -3235,7 +3179,7 @@
         <v>SIC210100</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>18</v>
@@ -3246,13 +3190,13 @@
       <c r="P29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T29" s="5" t="s">
@@ -3260,7 +3204,7 @@
       </c>
       <c r="U29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC210100: { enName: 'mapTowerOther', cnName:  '其他' },</v>
+        <v>SIC210100: { enName: 'mapTowerOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -3271,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -3283,15 +3227,15 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="2" t="str">
@@ -3299,7 +3243,7 @@
         <v>SIC210101</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>18</v>
@@ -3310,13 +3254,13 @@
       <c r="P30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T30" s="5" t="s">
@@ -3324,7 +3268,7 @@
       </c>
       <c r="U30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC210101: { enName: 'mapTowerBase', cnName:  '基础' },</v>
+        <v>SIC210101: { enName: 'mapTowerBase', cnName: '基础' },</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -3335,7 +3279,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -3347,23 +3291,23 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>30</v>
+        <v>84</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>B31&amp;D31&amp;F31&amp;H31&amp;J31</f>
         <v>SIC210202</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>18</v>
@@ -3374,13 +3318,13 @@
       <c r="P31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T31" s="5" t="s">
@@ -3388,7 +3332,7 @@
       </c>
       <c r="U31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC210202: { enName: 'mapTowerMaterial', cnName:  '塔材' },</v>
+        <v>SIC210202: { enName: 'mapTowerMaterial', cnName: '塔材' },</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3399,7 +3343,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -3411,23 +3355,23 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>33</v>
+        <v>90</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K32" s="2" t="str">
         <f>B32&amp;D32&amp;F32&amp;H32&amp;J32</f>
         <v>SIC210303</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>18</v>
@@ -3438,13 +3382,13 @@
       <c r="P32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T32" s="5" t="s">
@@ -3452,7 +3396,7 @@
       </c>
       <c r="U32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC210303: { enName: 'mapTowerArmourClamp', cnName:  '金具' },</v>
+        <v>SIC210303: { enName: 'mapTowerArmourClamp', cnName: '金具' },</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3463,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
@@ -3475,23 +3419,23 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K33" s="2" t="str">
         <f>B33&amp;D33&amp;F33&amp;H33&amp;J33</f>
         <v>SIC210404</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>18</v>
@@ -3502,13 +3446,13 @@
       <c r="P33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T33" s="5" t="s">
@@ -3516,7 +3460,7 @@
       </c>
       <c r="U33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC210404: { enName: 'mapTowerBolt', cnName:  '螺栓' },</v>
+        <v>SIC210404: { enName: 'mapTowerBolt', cnName: '螺栓' },</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3527,27 +3471,27 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="2" t="str">
@@ -3555,7 +3499,7 @@
         <v>SIC220100</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>18</v>
@@ -3566,13 +3510,13 @@
       <c r="P34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T34" s="5" t="s">
@@ -3580,7 +3524,7 @@
       </c>
       <c r="U34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220100: { enName: 'mapMonitorOther', cnName:  '其他' },</v>
+        <v>SIC220100: { enName: 'mapMonitorOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3591,27 +3535,27 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="2" t="str">
@@ -3619,7 +3563,7 @@
         <v>SIC220101</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>18</v>
@@ -3630,13 +3574,13 @@
       <c r="P35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T35" s="5" t="s">
@@ -3644,7 +3588,7 @@
       </c>
       <c r="U35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220101: { enName: 'mapMonitorPicture', cnName:  '图像监控' },</v>
+        <v>SIC220101: { enName: 'mapMonitorPicture', cnName: '图像监控' },</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3655,35 +3599,35 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>30</v>
+        <v>98</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K36" s="2" t="str">
         <f>B36&amp;D36&amp;F36&amp;H36&amp;J36</f>
         <v>SIC220102</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>18</v>
@@ -3694,13 +3638,13 @@
       <c r="P36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T36" s="5" t="s">
@@ -3708,7 +3652,7 @@
       </c>
       <c r="U36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220102: { enName: 'mapMonitorVideo', cnName:  '视频监控' },</v>
+        <v>SIC220102: { enName: 'mapMonitorVideo', cnName: '视频监控' },</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3719,35 +3663,35 @@
         <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K37" s="2" t="str">
         <f>B37&amp;D37&amp;F37&amp;H37&amp;J37</f>
         <v>SIC220103</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>18</v>
@@ -3758,13 +3702,13 @@
       <c r="P37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T37" s="5" t="s">
@@ -3772,7 +3716,7 @@
       </c>
       <c r="U37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220103: { enName: 'mapMonitorFault', cnName:  '故障监测仪' },</v>
+        <v>SIC220103: { enName: 'mapMonitorFault', cnName: '故障监测仪' },</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3783,27 +3727,27 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="2" t="str">
@@ -3811,7 +3755,7 @@
         <v>SIC220200</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>18</v>
@@ -3822,13 +3766,13 @@
       <c r="P38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T38" s="5" t="s">
@@ -3836,7 +3780,7 @@
       </c>
       <c r="U38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220200: { enName: 'mapSignOtherBoard', cnName:  '其他' },</v>
+        <v>SIC220200: { enName: 'mapSignOtherBoard', cnName: '其他' },</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3847,27 +3791,27 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="2" t="str">
@@ -3875,7 +3819,7 @@
         <v>SIC220201</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>18</v>
@@ -3886,13 +3830,13 @@
       <c r="P39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T39" s="5" t="s">
@@ -3900,7 +3844,7 @@
       </c>
       <c r="U39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220201: { enName: 'mapSignHighVoltageWarning', cnName:  '高压警示牌' },</v>
+        <v>SIC220201: { enName: 'mapSignHighVoltageWarning', cnName: '高压警示牌' },</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3911,35 +3855,35 @@
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F40" s="2">
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K40" s="2" t="str">
         <f>B40&amp;D40&amp;F40&amp;H40&amp;J40</f>
         <v>SIC220202</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>18</v>
@@ -3950,13 +3894,13 @@
       <c r="P40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T40" s="5" t="s">
@@ -3964,7 +3908,7 @@
       </c>
       <c r="U40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220202: { enName: 'mapSignProhibitionOfConstruction', cnName:  '禁止施工牌' },</v>
+        <v>SIC220202: { enName: 'mapSignProhibitionOfConstruction', cnName: '禁止施工牌' },</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3975,35 +3919,35 @@
         <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>33</v>
+        <v>108</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K41" s="2" t="str">
         <f>B41&amp;D41&amp;F41&amp;H41&amp;J41</f>
         <v>SIC220203</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>18</v>
@@ -4014,13 +3958,13 @@
       <c r="P41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="Q41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T41" s="5" t="s">
@@ -4028,7 +3972,7 @@
       </c>
       <c r="U41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220203: { enName: 'mapSignNoFishing', cnName:  '钓鱼牌' },</v>
+        <v>SIC220203: { enName: 'mapSignNoFishing', cnName: '钓鱼牌' },</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -4039,27 +3983,27 @@
         <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="2" t="str">
@@ -4067,7 +4011,7 @@
         <v>SIC220300</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>18</v>
@@ -4078,13 +4022,13 @@
       <c r="P42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="8" t="s">
+      <c r="Q42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T42" s="5" t="s">
@@ -4092,7 +4036,7 @@
       </c>
       <c r="U42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220300: { enName: 'mapProtectOther', cnName:  '其他' },</v>
+        <v>SIC220300: { enName: 'mapProtectOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -4103,27 +4047,27 @@
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F43" s="2">
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="2" t="str">
@@ -4131,7 +4075,7 @@
         <v>SIC220301</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>18</v>
@@ -4142,13 +4086,13 @@
       <c r="P43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T43" s="5" t="s">
@@ -4156,7 +4100,7 @@
       </c>
       <c r="U43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220301: { enName: 'mapProtectCrashBearer', cnName:  '防撞墩' },</v>
+        <v>SIC220301: { enName: 'mapProtectCrashBearer', cnName: '防撞墩' },</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -4167,35 +4111,35 @@
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>30</v>
+        <v>114</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K44" s="2" t="str">
         <f>B44&amp;D44&amp;F44&amp;H44&amp;J44</f>
         <v>SIC220302</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>18</v>
@@ -4206,13 +4150,13 @@
       <c r="P44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="Q44" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T44" s="5" t="s">
@@ -4220,7 +4164,7 @@
       </c>
       <c r="U44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220302: { enName: 'mapProtectCrashBarrier', cnName:  '防撞围栏' },</v>
+        <v>SIC220302: { enName: 'mapProtectCrashBarrier', cnName: '防撞围栏' },</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -4231,35 +4175,35 @@
         <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F45" s="2">
         <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>33</v>
+        <v>116</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K45" s="2" t="str">
         <f>B45&amp;D45&amp;F45&amp;H45&amp;J45</f>
         <v>SIC220303</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>18</v>
@@ -4270,13 +4214,13 @@
       <c r="P45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="Q45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T45" s="5" t="s">
@@ -4284,7 +4228,7 @@
       </c>
       <c r="U45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220303: { enName: 'mapProtectRail', cnName:  '围栏' },</v>
+        <v>SIC220303: { enName: 'mapProtectRail', cnName: '围栏' },</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -4295,35 +4239,35 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F46" s="2">
         <v>2</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>36</v>
+        <v>118</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K46" s="2" t="str">
         <f>B46&amp;D46&amp;F46&amp;H46&amp;J46</f>
         <v>SIC220304</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>18</v>
@@ -4334,13 +4278,13 @@
       <c r="P46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="T46" s="5" t="s">
@@ -4348,20 +4292,19 @@
       </c>
       <c r="U46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>SIC220304: { enName: 'mapProtectHeightLimit', cnName:  '限高架' },</v>
+        <v>SIC220304: { enName: 'mapProtectHeightLimit', cnName: '限高架' },</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L46">
     <extLst/>
   </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="N1:S1"/>
-    <mergeCell ref="V2:V46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/views/map/components/transmission-line/components/对照表.xlsx
+++ b/src/views/map/components/transmission-line/components/对照表.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12855"/>
+    <workbookView windowWidth="28695" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$46</definedName>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="180">
   <si>
     <t>序号</t>
   </si>
@@ -377,6 +379,186 @@
   </si>
   <si>
     <t>mapProtectHeightLimit</t>
+  </si>
+  <si>
+    <t>原始坐标X</t>
+  </si>
+  <si>
+    <t>原始坐标Y</t>
+  </si>
+  <si>
+    <t>偏移量</t>
+  </si>
+  <si>
+    <t>纠正坐标X</t>
+  </si>
+  <si>
+    <t>纠正坐标Y</t>
+  </si>
+  <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>设备主人</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>标志英文名</t>
+  </si>
+  <si>
+    <t>标志中文名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ </t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>SICCode</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>SIC110401</t>
+  </si>
+  <si>
+    <t>extData</t>
+  </si>
+  <si>
+    <t>DeviceOwner</t>
+  </si>
+  <si>
+    <t>'syy'</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>'挖机施工'</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>'备注'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> }</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>enName</t>
+  </si>
+  <si>
+    <t>cnName</t>
+  </si>
+  <si>
+    <t>contentRender</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>draggable</t>
+  </si>
+  <si>
+    <t>SIC110402</t>
+  </si>
+  <si>
+    <t>SIC110403</t>
+  </si>
+  <si>
+    <t>SIC110404</t>
+  </si>
+  <si>
+    <t>SIC110405</t>
+  </si>
+  <si>
+    <t>SIC110406</t>
+  </si>
+  <si>
+    <t>SIC120100</t>
+  </si>
+  <si>
+    <t>SIC120101</t>
+  </si>
+  <si>
+    <t>SIC120102</t>
+  </si>
+  <si>
+    <t>SIC120103</t>
+  </si>
+  <si>
+    <t>SIC120104</t>
+  </si>
+  <si>
+    <t>SIC210100</t>
+  </si>
+  <si>
+    <t>SIC210101</t>
+  </si>
+  <si>
+    <t>SIC210202</t>
+  </si>
+  <si>
+    <t>SIC210303</t>
+  </si>
+  <si>
+    <t>SIC210404</t>
+  </si>
+  <si>
+    <t>SIC220100</t>
+  </si>
+  <si>
+    <t>SIC220101</t>
+  </si>
+  <si>
+    <t>SIC220102</t>
+  </si>
+  <si>
+    <t>SIC220103</t>
+  </si>
+  <si>
+    <t>SIC220200</t>
+  </si>
+  <si>
+    <t>SIC220201</t>
+  </si>
+  <si>
+    <t>SIC220202</t>
+  </si>
+  <si>
+    <t>SIC220203</t>
+  </si>
+  <si>
+    <t>SIC220300</t>
+  </si>
+  <si>
+    <t>SIC220301</t>
   </si>
 </sst>
 </file>
@@ -384,12 +566,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,16 +580,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
+      <color rgb="FF6089B4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE6700"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +632,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -438,22 +658,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,11 +678,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,9 +715,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,47 +724,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -551,13 +747,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,37 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,25 +873,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,25 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,37 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,21 +965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -795,15 +976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,15 +1006,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -857,132 +1020,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,25 +1187,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,9 +1225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1232,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1353,17 +1558,17 @@
   <sheetPr/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U46"/>
+    <sheetView topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="39.5" style="1" customWidth="1"/>
+    <col min="1" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="7.625" customWidth="1"/>
     <col min="14" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="10.375" customWidth="1"/>
@@ -1376,32 +1581,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -1418,2880 +1623,2880 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f>B2&amp;D2&amp;F2&amp;H2&amp;J2</f>
+      <c r="K2" s="5" t="str">
+        <f t="shared" ref="K2:K16" si="0">B2&amp;D2&amp;F2&amp;H2&amp;J2</f>
         <v>SIC110100</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="5" t="str">
+      <c r="U2" s="7" t="str">
         <f>K2&amp;N2&amp;O2&amp;P2&amp;L2&amp;Q2&amp;R2&amp;I2&amp;S2&amp;T2</f>
         <v>SIC110100: { enName: 'mapBuildingOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f>B3&amp;D3&amp;F3&amp;H3&amp;J3</f>
+      <c r="K3" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110101</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="5" t="str">
-        <f t="shared" ref="U3:U46" si="0">K3&amp;N3&amp;O3&amp;P3&amp;L3&amp;Q3&amp;R3&amp;I3&amp;S3&amp;T3</f>
+      <c r="U3" s="7" t="str">
+        <f t="shared" ref="U3:U46" si="1">K3&amp;N3&amp;O3&amp;P3&amp;L3&amp;Q3&amp;R3&amp;I3&amp;S3&amp;T3</f>
         <v>SIC110101: { enName: 'mapBuildingRoad', cnName: '道路' },</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="str">
-        <f>B4&amp;D4&amp;F4&amp;H4&amp;J4</f>
+      <c r="K4" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110102</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U4" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110102: { enName: 'mapBuildingPiping', cnName: '管道' },</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2" t="str">
-        <f>B5&amp;D5&amp;F5&amp;H5&amp;J5</f>
+      <c r="K5" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110103</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U5" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110103: { enName: 'mapBuildingFloor', cnName: '楼房' },</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="2" t="str">
-        <f>B6&amp;D6&amp;F6&amp;H6&amp;J6</f>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110104</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U6" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110104: { enName: 'mapBuildingFactory', cnName: '厂房' },</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="str">
-        <f>B7&amp;D7&amp;F7&amp;H7&amp;J7</f>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110200</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110200: { enName: 'mapPlantOtherTree', cnName: '其他' },</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="2" t="str">
-        <f>B8&amp;D8&amp;F8&amp;H8&amp;J8</f>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110201</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U8" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110201: { enName: 'mapPlantPoplar', cnName: '杨树' },</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="2" t="str">
-        <f>B9&amp;D9&amp;F9&amp;H9&amp;J9</f>
+      <c r="K9" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110202</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U9" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110202: { enName: 'mapPlantAfforestationTree', cnName: '绿化树' },</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="2" t="str">
-        <f>B10&amp;D10&amp;F10&amp;H10&amp;J10</f>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110203</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U10" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110203: { enName: 'mapPlantWeedTree', cnName: '杂树' },</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="2" t="str">
-        <f>B11&amp;D11&amp;F11&amp;H11&amp;J11</f>
+      <c r="K11" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110300</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U11" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110300: { enName: 'mapFloaterOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="2" t="str">
-        <f>B12&amp;D12&amp;F12&amp;H12&amp;J12</f>
+      <c r="K12" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110301</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U12" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110301: { enName: 'mapFloaterAntiaircraftAdvertising', cnName: '高炮' },</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="2" t="str">
-        <f>B13&amp;D13&amp;F13&amp;H13&amp;J13</f>
+      <c r="K13" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110302</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U13" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110302: { enName: 'mapFloaterBillBoard', cnName: '广告牌' },</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="2" t="str">
-        <f>B14&amp;D14&amp;F14&amp;H14&amp;J14</f>
+      <c r="K14" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110303</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U14" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110303: { enName: 'mapFloaterBalloon', cnName: '气球' },</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="2" t="str">
-        <f>B15&amp;D15&amp;F15&amp;H15&amp;J15</f>
+      <c r="K15" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110304</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U15" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110304: { enName: 'mapFloaterInflatableObject', cnName: '充气物' },</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="2" t="str">
-        <f>B16&amp;D16&amp;F16&amp;H16&amp;J16</f>
+      <c r="K16" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>SIC110305</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U16" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110305: { enName: 'mapFloaterLargeGreenhouse', cnName: '大棚' },</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="2" t="str">
-        <f t="shared" ref="K17:K45" si="1">B17&amp;D17&amp;F17&amp;H17&amp;J17</f>
+      <c r="K17" s="5" t="str">
+        <f t="shared" ref="K17:K46" si="2">B17&amp;D17&amp;F17&amp;H17&amp;J17</f>
         <v>SIC110400</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U17" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC110400: { enName: 'mapRiverOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="K18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC110401</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC110401</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC110401: { enName: 'mapRiverFish', cnName: '鱼塘' },</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC110402</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC110402</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC110402: { enName: 'mapRiverDitch', cnName: '河流' },</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="K20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC110403</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC110403</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U20" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC110403: { enName: 'mapRiverCrab', cnName: '螃蟹塘' },</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="K21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC110404</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC110404</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U21" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC110404: { enName: 'mapRiverLobster', cnName: '龙虾塘' },</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="K22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC110405</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC110405</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC110405: { enName: 'mapRiverCannal', cnName: '运河' },</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="K23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC110406</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC110406</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U23" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC110406: { enName: 'mapRiverYellowRiver', cnName: '废黄河' },</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>2</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="K24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC120100</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC120100</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC120100: { enName: 'mapMachOtherCar', cnName: '其他' },</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>2</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="K25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC120101</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC120101</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U25" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC120101: { enName: 'mapMachCrane', cnName: '吊车' },</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <v>2</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="K26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC120102</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC120102</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U26" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC120102: { enName: 'mapMachTowerCrane', cnName: '塔吊' },</v>
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>2</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC120103</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC120103</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U27" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC120103: { enName: 'mapMachExcavator', cnName: '挖机' },</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>2</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>SIC120104</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>SIC120104</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="5" t="str">
-        <f t="shared" si="0"/>
         <v>SIC120104: { enName: 'mapMachTrack', cnName: '货车' },</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="2" t="str">
-        <f>B29&amp;D29&amp;F29&amp;H29&amp;J29</f>
+      <c r="K29" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC210100</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U29" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC210100: { enName: 'mapTowerOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <v>1</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="2" t="str">
-        <f>B30&amp;D30&amp;F30&amp;H30&amp;J30</f>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC210101</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U30" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U30" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC210101: { enName: 'mapTowerBase', cnName: '基础' },</v>
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>2</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="2" t="str">
-        <f>B31&amp;D31&amp;F31&amp;H31&amp;J31</f>
+      <c r="K31" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC210202</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U31" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U31" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC210202: { enName: 'mapTowerMaterial', cnName: '塔材' },</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>2</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>1</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="2" t="str">
-        <f>B32&amp;D32&amp;F32&amp;H32&amp;J32</f>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC210303</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="S32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U32" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC210303: { enName: 'mapTowerArmourClamp', cnName: '金具' },</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>2</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <v>1</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="2" t="str">
-        <f>B33&amp;D33&amp;F33&amp;H33&amp;J33</f>
+      <c r="K33" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC210404</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U33" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U33" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC210404: { enName: 'mapTowerBolt', cnName: '螺栓' },</v>
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>2</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="5">
         <v>2</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="2" t="str">
-        <f>B34&amp;D34&amp;F34&amp;H34&amp;J34</f>
+      <c r="K34" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220100</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="Q34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U34" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U34" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220100: { enName: 'mapMonitorOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
         <v>2</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="2" t="str">
-        <f>B35&amp;D35&amp;F35&amp;H35&amp;J35</f>
+      <c r="K35" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220101</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="7" t="s">
+      <c r="Q35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="S35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U35" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U35" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220101: { enName: 'mapMonitorPicture', cnName: '图像监控' },</v>
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="5">
         <v>2</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="2" t="str">
-        <f>B36&amp;D36&amp;F36&amp;H36&amp;J36</f>
+      <c r="K36" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220102</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="R36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S36" s="7" t="s">
+      <c r="S36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="T36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U36" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U36" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220102: { enName: 'mapMonitorVideo', cnName: '视频监控' },</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>2</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="5">
         <v>2</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="2" t="str">
-        <f>B37&amp;D37&amp;F37&amp;H37&amp;J37</f>
+      <c r="K37" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220103</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S37" s="7" t="s">
+      <c r="S37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U37" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U37" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220103: { enName: 'mapMonitorFault', cnName: '故障监测仪' },</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="5">
         <v>2</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="2" t="str">
-        <f>B38&amp;D38&amp;F38&amp;H38&amp;J38</f>
+      <c r="K38" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220200</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="P38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U38" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U38" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220200: { enName: 'mapSignOtherBoard', cnName: '其他' },</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>2</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="5">
         <v>2</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="2" t="str">
-        <f>B39&amp;D39&amp;F39&amp;H39&amp;J39</f>
+      <c r="K39" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220201</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="7" t="s">
+      <c r="Q39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S39" s="7" t="s">
+      <c r="S39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U39" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U39" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220201: { enName: 'mapSignHighVoltageWarning', cnName: '高压警示牌' },</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="5">
         <v>2</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="2" t="str">
-        <f>B40&amp;D40&amp;F40&amp;H40&amp;J40</f>
+      <c r="K40" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220202</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="5" t="s">
+      <c r="P40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="Q40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S40" s="7" t="s">
+      <c r="S40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="T40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U40" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U40" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220202: { enName: 'mapSignProhibitionOfConstruction', cnName: '禁止施工牌' },</v>
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>2</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="5">
         <v>2</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="2" t="str">
-        <f>B41&amp;D41&amp;F41&amp;H41&amp;J41</f>
+      <c r="K41" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220203</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="P41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="Q41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="T41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U41" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220203: { enName: 'mapSignNoFishing', cnName: '钓鱼牌' },</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
         <v>2</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="5">
         <v>2</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="2" t="str">
-        <f>B42&amp;D42&amp;F42&amp;H42&amp;J42</f>
+      <c r="K42" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220300</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="P42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="7" t="s">
+      <c r="Q42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="S42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="T42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U42" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220300: { enName: 'mapProtectOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="2">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="5">
         <v>2</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="5">
         <v>2</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="2" t="str">
-        <f>B43&amp;D43&amp;F43&amp;H43&amp;J43</f>
+      <c r="K43" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220301</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="7" t="s">
+      <c r="Q43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="S43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U43" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U43" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220301: { enName: 'mapProtectCrashBearer', cnName: '防撞墩' },</v>
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="5">
         <v>2</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="5">
         <v>2</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="2" t="str">
-        <f>B44&amp;D44&amp;F44&amp;H44&amp;J44</f>
+      <c r="K44" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220302</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="7" t="s">
+      <c r="Q44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="S44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U44" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220302: { enName: 'mapProtectCrashBarrier', cnName: '防撞围栏' },</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="2">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="5">
         <v>2</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
         <v>2</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="2" t="str">
-        <f>B45&amp;D45&amp;F45&amp;H45&amp;J45</f>
+      <c r="K45" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220303</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N45" s="5" t="s">
+      <c r="N45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="P45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="7" t="s">
+      <c r="Q45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S45" s="7" t="s">
+      <c r="S45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="5" t="s">
+      <c r="T45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U45" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U45" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220303: { enName: 'mapProtectRail', cnName: '围栏' },</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="2">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>2</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="5">
         <v>2</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="2" t="str">
-        <f>B46&amp;D46&amp;F46&amp;H46&amp;J46</f>
+      <c r="K46" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>SIC220304</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="P46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="7" t="s">
+      <c r="Q46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S46" s="7" t="s">
+      <c r="S46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="T46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="U46" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>SIC220304: { enName: 'mapProtectHeightLimit', cnName: '限高架' },</v>
       </c>
     </row>
@@ -4309,4 +4514,3724 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AR27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="11" max="15" width="3.75" customWidth="1"/>
+    <col min="17" max="18" width="3.75" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="3.75" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="3.75" customWidth="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1"/>
+    <col min="26" max="26" width="3.75" customWidth="1"/>
+    <col min="27" max="27" width="8" customWidth="1"/>
+    <col min="28" max="28" width="3.75" customWidth="1"/>
+    <col min="30" max="30" width="3.75" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="3.75" customWidth="1"/>
+    <col min="34" max="34" width="3.75" customWidth="1"/>
+    <col min="35" max="35" width="7.625" customWidth="1"/>
+    <col min="36" max="36" width="3.75" customWidth="1"/>
+    <col min="37" max="37" width="4.875" customWidth="1"/>
+    <col min="38" max="38" width="112.75" customWidth="1"/>
+    <col min="39" max="39" width="13.5" customWidth="1"/>
+    <col min="40" max="40" width="12.375" customWidth="1"/>
+    <col min="41" max="41" width="16" customWidth="1"/>
+    <col min="44" max="44" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B2">
+        <v>33.776452</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2/10000</f>
+        <v>0.0004</v>
+      </c>
+      <c r="E2">
+        <f>A2-D2</f>
+        <v>118.720243</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2">
+        <f>B2-D2</f>
+        <v>33.776052</v>
+      </c>
+      <c r="H2" t="str">
+        <f>E2&amp;F2&amp;G2</f>
+        <v>118.720243, 33.776052</v>
+      </c>
+      <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL2" t="str">
+        <f>I2&amp;J2&amp;K2&amp;L2&amp;H2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;U2&amp;V2&amp;W2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2</f>
+        <v>{ position: [118.720243, 33.776052], SICCode: 'SIC110401', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B3">
+        <v>33.776452</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D27" si="0">C3/10000</f>
+        <v>0.0008</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E27" si="1">A3-D3</f>
+        <v>118.719843</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="2">B3-D3</f>
+        <v>33.775652</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H27" si="3">E3&amp;F3&amp;G3</f>
+        <v>118.719843, 33.775652</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" ref="AL3:AL27" si="4">I3&amp;J3&amp;K3&amp;L3&amp;H3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3</f>
+        <v>{ position: [118.719843, 33.775652], SICCode: 'SIC110402', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B4">
+        <v>33.776452</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0012</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>118.719443</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>33.775252</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>118.719443, 33.775252</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W4" t="s">
+        <v>134</v>
+      </c>
+      <c r="X4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.719443, 33.775252], SICCode: 'SIC110403', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B5">
+        <v>33.776452</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0016</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>118.719043</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>33.774852</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>118.719043, 33.774852</v>
+      </c>
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" t="s">
+        <v>157</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W5" t="s">
+        <v>134</v>
+      </c>
+      <c r="X5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.719043, 33.774852], SICCode: 'SIC110404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B6">
+        <v>33.776452</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>118.718643</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>33.774452</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>118.718643, 33.774452</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" t="s">
+        <v>158</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" t="s">
+        <v>140</v>
+      </c>
+      <c r="W6" t="s">
+        <v>134</v>
+      </c>
+      <c r="X6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL6" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.718643, 33.774452], SICCode: 'SIC110405', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B7">
+        <v>33.776452</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0024</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>118.718243</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>33.774052</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>118.718243, 33.774052</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.718243, 33.774052], SICCode: 'SIC110406', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B8">
+        <v>33.776452</v>
+      </c>
+      <c r="C8" s="2">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0028</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>118.717843</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>33.773652</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>118.717843, 33.773652</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" t="s">
+        <v>134</v>
+      </c>
+      <c r="X8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.717843, 33.773652], SICCode: 'SIC120100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B9">
+        <v>33.776452</v>
+      </c>
+      <c r="C9" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0032</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>118.717443</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>33.773252</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>118.717443, 33.773252</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" t="s">
+        <v>131</v>
+      </c>
+      <c r="V9" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" t="s">
+        <v>134</v>
+      </c>
+      <c r="X9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.717443, 33.773252], SICCode: 'SIC120101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B10">
+        <v>33.776452</v>
+      </c>
+      <c r="C10" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0036</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>118.717043</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>33.772852</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>118.717043, 33.772852</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" t="s">
+        <v>162</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" t="s">
+        <v>140</v>
+      </c>
+      <c r="W10" t="s">
+        <v>134</v>
+      </c>
+      <c r="X10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.717043, 33.772852], SICCode: 'SIC120102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B11">
+        <v>33.776452</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.004</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>118.716643</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>33.772452</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>118.716643, 33.772452</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" t="s">
+        <v>163</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" t="s">
+        <v>131</v>
+      </c>
+      <c r="V11" t="s">
+        <v>140</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.716643, 33.772452], SICCode: 'SIC120103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B12">
+        <v>33.776452</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0044</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>118.716243</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>33.772052</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>118.716243, 33.772052</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" t="s">
+        <v>140</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI12" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.716243, 33.772052], SICCode: 'SIC120104', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B13">
+        <v>33.776452</v>
+      </c>
+      <c r="C13" s="2">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0048</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>118.715843</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>33.771652</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>118.715843, 33.771652</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" t="s">
+        <v>165</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.715843, 33.771652], SICCode: 'SIC210100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B14">
+        <v>33.776452</v>
+      </c>
+      <c r="C14" s="2">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0052</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>118.715443</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>33.771252</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>118.715443, 33.771252</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U14" t="s">
+        <v>131</v>
+      </c>
+      <c r="V14" t="s">
+        <v>140</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.715443, 33.771252], SICCode: 'SIC210101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B15">
+        <v>33.776452</v>
+      </c>
+      <c r="C15" s="2">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0056</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>118.715043</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>33.770852</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>118.715043, 33.770852</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" t="s">
+        <v>167</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" t="s">
+        <v>140</v>
+      </c>
+      <c r="W15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.715043, 33.770852], SICCode: 'SIC210202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B16">
+        <v>33.776452</v>
+      </c>
+      <c r="C16" s="2">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.006</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>118.714643</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>33.770452</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>118.714643, 33.770452</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" t="s">
+        <v>168</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" t="s">
+        <v>131</v>
+      </c>
+      <c r="V16" t="s">
+        <v>140</v>
+      </c>
+      <c r="W16" t="s">
+        <v>134</v>
+      </c>
+      <c r="X16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.714643, 33.770452], SICCode: 'SIC210303', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B17">
+        <v>33.776452</v>
+      </c>
+      <c r="C17" s="2">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0064</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>118.714243</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>33.770052</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>118.714243, 33.770052</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" t="s">
+        <v>169</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" t="s">
+        <v>131</v>
+      </c>
+      <c r="V17" t="s">
+        <v>140</v>
+      </c>
+      <c r="W17" t="s">
+        <v>134</v>
+      </c>
+      <c r="X17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI17" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.714243, 33.770052], SICCode: 'SIC210404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B18">
+        <v>33.776452</v>
+      </c>
+      <c r="C18" s="2">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0068</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>118.713843</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>33.769652</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>118.713843, 33.769652</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" t="s">
+        <v>170</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U18" t="s">
+        <v>131</v>
+      </c>
+      <c r="V18" t="s">
+        <v>140</v>
+      </c>
+      <c r="W18" t="s">
+        <v>134</v>
+      </c>
+      <c r="X18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.713843, 33.769652], SICCode: 'SIC220100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B19">
+        <v>33.776452</v>
+      </c>
+      <c r="C19" s="2">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0072</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>118.713443</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>33.769252</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>118.713443, 33.769252</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" t="s">
+        <v>171</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V19" t="s">
+        <v>140</v>
+      </c>
+      <c r="W19" t="s">
+        <v>134</v>
+      </c>
+      <c r="X19" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL19" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.713443, 33.769252], SICCode: 'SIC220101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B20">
+        <v>33.776452</v>
+      </c>
+      <c r="C20" s="2">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0076</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>118.713043</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>33.768852</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>118.713043, 33.768852</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" t="s">
+        <v>172</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U20" t="s">
+        <v>131</v>
+      </c>
+      <c r="V20" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20" t="s">
+        <v>134</v>
+      </c>
+      <c r="X20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL20" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.713043, 33.768852], SICCode: 'SIC220102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B21">
+        <v>33.776452</v>
+      </c>
+      <c r="C21" s="2">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.008</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>118.712643</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>33.768452</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>118.712643, 33.768452</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S21" t="s">
+        <v>173</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U21" t="s">
+        <v>131</v>
+      </c>
+      <c r="V21" t="s">
+        <v>140</v>
+      </c>
+      <c r="W21" t="s">
+        <v>134</v>
+      </c>
+      <c r="X21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL21" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.712643, 33.768452], SICCode: 'SIC220103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B22">
+        <v>33.776452</v>
+      </c>
+      <c r="C22" s="2">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0084</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>118.712243</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>33.768052</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>118.712243, 33.768052</v>
+      </c>
+      <c r="I22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O22" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" t="s">
+        <v>174</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V22" t="s">
+        <v>140</v>
+      </c>
+      <c r="W22" t="s">
+        <v>134</v>
+      </c>
+      <c r="X22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL22" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.712243, 33.768052], SICCode: 'SIC220200', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B23">
+        <v>33.776452</v>
+      </c>
+      <c r="C23" s="2">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0088</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>118.711843</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>33.767652</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>118.711843, 33.767652</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>134</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" t="s">
+        <v>175</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" t="s">
+        <v>140</v>
+      </c>
+      <c r="W23" t="s">
+        <v>134</v>
+      </c>
+      <c r="X23" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI23" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL23" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.711843, 33.767652], SICCode: 'SIC220201', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B24">
+        <v>33.776452</v>
+      </c>
+      <c r="C24" s="2">
+        <v>92</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0092</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>118.711443</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>33.767252</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>118.711443, 33.767252</v>
+      </c>
+      <c r="I24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>134</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" t="s">
+        <v>176</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" t="s">
+        <v>131</v>
+      </c>
+      <c r="V24" t="s">
+        <v>140</v>
+      </c>
+      <c r="W24" t="s">
+        <v>134</v>
+      </c>
+      <c r="X24" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL24" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.711443, 33.767252], SICCode: 'SIC220202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B25">
+        <v>33.776452</v>
+      </c>
+      <c r="C25" s="2">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0096</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>118.711043</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>33.766852</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>118.711043, 33.766852</v>
+      </c>
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" t="s">
+        <v>177</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U25" t="s">
+        <v>131</v>
+      </c>
+      <c r="V25" t="s">
+        <v>140</v>
+      </c>
+      <c r="W25" t="s">
+        <v>134</v>
+      </c>
+      <c r="X25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL25" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.711043, 33.766852], SICCode: 'SIC220203', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B26">
+        <v>33.776452</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>118.710643</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>33.766452</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>118.710643, 33.766452</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S26" t="s">
+        <v>178</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" t="s">
+        <v>140</v>
+      </c>
+      <c r="W26" t="s">
+        <v>134</v>
+      </c>
+      <c r="X26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI26" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL26" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.710643, 33.766452], SICCode: 'SIC220300', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="2">
+        <v>118.720643</v>
+      </c>
+      <c r="B27">
+        <v>33.776452</v>
+      </c>
+      <c r="C27" s="2">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0104</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>118.710243</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>33.766052</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>118.710243, 33.766052</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" t="s">
+        <v>136</v>
+      </c>
+      <c r="O27" t="s">
+        <v>131</v>
+      </c>
+      <c r="P27" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S27" t="s">
+        <v>179</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" t="s">
+        <v>131</v>
+      </c>
+      <c r="V27" t="s">
+        <v>140</v>
+      </c>
+      <c r="W27" t="s">
+        <v>134</v>
+      </c>
+      <c r="X27" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL27" t="str">
+        <f t="shared" si="4"/>
+        <v>{ position: [118.710243, 33.766052], SICCode: 'SIC220301', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/views/map/components/transmission-line/components/对照表.xlsx
+++ b/src/views/map/components/transmission-line/components/对照表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="181">
   <si>
     <t>序号</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>MARKER</t>
   </si>
   <si>
     <t xml:space="preserve">{ </t>
@@ -566,10 +569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -595,6 +598,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -609,16 +634,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,6 +674,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -640,9 +704,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,58 +728,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,22 +738,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -747,13 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +774,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,25 +822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,31 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,8 +962,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,11 +1009,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,35 +1031,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,152 +1061,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,9 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1558,17 +1558,17 @@
   <sheetPr/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="39.5" style="4" customWidth="1"/>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.625" customWidth="1"/>
     <col min="14" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="10.375" customWidth="1"/>
@@ -1581,2921 +1581,2921 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:21">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="4" t="str">
         <f t="shared" ref="K2:K16" si="0">B2&amp;D2&amp;F2&amp;H2&amp;J2</f>
         <v>SIC110100</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="7" t="str">
+      <c r="U2" s="6" t="str">
         <f>K2&amp;N2&amp;O2&amp;P2&amp;L2&amp;Q2&amp;R2&amp;I2&amp;S2&amp;T2</f>
         <v>SIC110100: { enName: 'mapBuildingOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="K3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110101</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="7" t="str">
+      <c r="U3" s="6" t="str">
         <f t="shared" ref="U3:U46" si="1">K3&amp;N3&amp;O3&amp;P3&amp;L3&amp;Q3&amp;R3&amp;I3&amp;S3&amp;T3</f>
         <v>SIC110101: { enName: 'mapBuildingRoad', cnName: '道路' },</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="str">
+      <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110102</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="7" t="str">
+      <c r="U4" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110102: { enName: 'mapBuildingPiping', cnName: '管道' },</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110103</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="7" t="str">
+      <c r="U5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110103: { enName: 'mapBuildingFloor', cnName: '楼房' },</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110104</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="7" t="str">
+      <c r="U6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110104: { enName: 'mapBuildingFactory', cnName: '厂房' },</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110200</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="7" t="str">
+      <c r="U7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110200: { enName: 'mapPlantOtherTree', cnName: '其他' },</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110201</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="7" t="str">
+      <c r="U8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110201: { enName: 'mapPlantPoplar', cnName: '杨树' },</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="5" t="str">
+      <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110202</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="7" t="str">
+      <c r="U9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110202: { enName: 'mapPlantAfforestationTree', cnName: '绿化树' },</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="5" t="str">
+      <c r="K10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110203</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="7" t="str">
+      <c r="U10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110203: { enName: 'mapPlantWeedTree', cnName: '杂树' },</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="5" t="str">
+      <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110300</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="7" t="str">
+      <c r="U11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110300: { enName: 'mapFloaterOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="5" t="str">
+      <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110301</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="7" t="str">
+      <c r="U12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110301: { enName: 'mapFloaterAntiaircraftAdvertising', cnName: '高炮' },</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="5" t="str">
+      <c r="K13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110302</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="7" t="str">
+      <c r="U13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110302: { enName: 'mapFloaterBillBoard', cnName: '广告牌' },</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="5" t="str">
+      <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110303</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="7" t="str">
+      <c r="U14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110303: { enName: 'mapFloaterBalloon', cnName: '气球' },</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="5" t="str">
+      <c r="K15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110304</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="7" t="str">
+      <c r="U15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110304: { enName: 'mapFloaterInflatableObject', cnName: '充气物' },</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="5" t="str">
+      <c r="K16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SIC110305</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="7" t="str">
+      <c r="U16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110305: { enName: 'mapFloaterLargeGreenhouse', cnName: '大棚' },</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="5" t="str">
+      <c r="K17" s="4" t="str">
         <f t="shared" ref="K17:K46" si="2">B17&amp;D17&amp;F17&amp;H17&amp;J17</f>
         <v>SIC110400</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="7" t="str">
+      <c r="U17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110400: { enName: 'mapRiverOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="5" t="str">
+      <c r="K18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC110401</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="7" t="str">
+      <c r="U18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110401: { enName: 'mapRiverFish', cnName: '鱼塘' },</v>
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="5" t="str">
+      <c r="K19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC110402</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="7" t="str">
+      <c r="U19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110402: { enName: 'mapRiverDitch', cnName: '河流' },</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="5" t="str">
+      <c r="K20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC110403</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U20" s="7" t="str">
+      <c r="U20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110403: { enName: 'mapRiverCrab', cnName: '螃蟹塘' },</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="5" t="str">
+      <c r="K21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC110404</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="7" t="str">
+      <c r="U21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110404: { enName: 'mapRiverLobster', cnName: '龙虾塘' },</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="5" t="str">
+      <c r="K22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC110405</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="7" t="str">
+      <c r="U22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110405: { enName: 'mapRiverCannal', cnName: '运河' },</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="5" t="str">
+      <c r="K23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC110406</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U23" s="7" t="str">
+      <c r="U23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC110406: { enName: 'mapRiverYellowRiver', cnName: '废黄河' },</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="5" t="str">
+      <c r="K24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC120100</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U24" s="7" t="str">
+      <c r="U24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC120100: { enName: 'mapMachOtherCar', cnName: '其他' },</v>
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="5" t="str">
+      <c r="K25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC120101</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U25" s="7" t="str">
+      <c r="U25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC120101: { enName: 'mapMachCrane', cnName: '吊车' },</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="5" t="str">
+      <c r="K26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC120102</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="S26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U26" s="7" t="str">
+      <c r="U26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC120102: { enName: 'mapMachTowerCrane', cnName: '塔吊' },</v>
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="5" t="str">
+      <c r="K27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC120103</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="S27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U27" s="7" t="str">
+      <c r="U27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC120103: { enName: 'mapMachExcavator', cnName: '挖机' },</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="5" t="str">
+      <c r="K28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC120104</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="S28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T28" s="7" t="s">
+      <c r="T28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="7" t="str">
+      <c r="U28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC120104: { enName: 'mapMachTrack', cnName: '货车' },</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="5" t="str">
+      <c r="K29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC210100</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="S29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="7" t="s">
+      <c r="T29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="7" t="str">
+      <c r="U29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC210100: { enName: 'mapTowerOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>2</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="5" t="str">
+      <c r="K30" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC210101</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="R30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U30" s="7" t="str">
+      <c r="U30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC210101: { enName: 'mapTowerBase', cnName: '基础' },</v>
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="5" t="str">
+      <c r="K31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC210202</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="S31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U31" s="7" t="str">
+      <c r="U31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC210202: { enName: 'mapTowerMaterial', cnName: '塔材' },</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>2</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="5" t="str">
+      <c r="K32" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC210303</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="9" t="s">
+      <c r="S32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="T32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="7" t="str">
+      <c r="U32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC210303: { enName: 'mapTowerArmourClamp', cnName: '金具' },</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="5" t="str">
+      <c r="K33" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC210404</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S33" s="9" t="s">
+      <c r="S33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T33" s="7" t="s">
+      <c r="T33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U33" s="7" t="str">
+      <c r="U33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC210404: { enName: 'mapTowerBolt', cnName: '螺栓' },</v>
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>2</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="5" t="str">
+      <c r="K34" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220100</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="9" t="s">
+      <c r="S34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U34" s="7" t="str">
+      <c r="U34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220100: { enName: 'mapMonitorOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>2</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>2</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="5" t="str">
+      <c r="K35" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220101</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="O35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="9" t="s">
+      <c r="S35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T35" s="7" t="s">
+      <c r="T35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U35" s="7" t="str">
+      <c r="U35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220101: { enName: 'mapMonitorPicture', cnName: '图像监控' },</v>
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="5" t="str">
+      <c r="K36" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220102</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="7" t="s">
+      <c r="R36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S36" s="9" t="s">
+      <c r="S36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="7" t="s">
+      <c r="T36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U36" s="7" t="str">
+      <c r="U36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220102: { enName: 'mapMonitorVideo', cnName: '视频监控' },</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>2</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>2</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="5" t="str">
+      <c r="K37" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220103</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="7" t="s">
+      <c r="R37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="S37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U37" s="7" t="str">
+      <c r="U37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220103: { enName: 'mapMonitorFault', cnName: '故障监测仪' },</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>2</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>2</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="5" t="str">
+      <c r="K38" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220200</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="9" t="s">
+      <c r="S38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T38" s="7" t="s">
+      <c r="T38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U38" s="7" t="str">
+      <c r="U38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220200: { enName: 'mapSignOtherBoard', cnName: '其他' },</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>2</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>2</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="5" t="str">
+      <c r="K39" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220201</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="7" t="s">
+      <c r="R39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S39" s="9" t="s">
+      <c r="S39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T39" s="7" t="s">
+      <c r="T39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U39" s="7" t="str">
+      <c r="U39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220201: { enName: 'mapSignHighVoltageWarning', cnName: '高压警示牌' },</v>
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>2</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="5" t="str">
+      <c r="K40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220202</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="S40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T40" s="7" t="s">
+      <c r="T40" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U40" s="7" t="str">
+      <c r="U40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220202: { enName: 'mapSignProhibitionOfConstruction', cnName: '禁止施工牌' },</v>
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>2</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>2</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="5" t="str">
+      <c r="K41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220203</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="9" t="s">
+      <c r="Q41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R41" s="7" t="s">
+      <c r="R41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S41" s="9" t="s">
+      <c r="S41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T41" s="7" t="s">
+      <c r="T41" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="7" t="str">
+      <c r="U41" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220203: { enName: 'mapSignNoFishing', cnName: '钓鱼牌' },</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>2</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="5" t="str">
+      <c r="K42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220300</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="9" t="s">
+      <c r="Q42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S42" s="9" t="s">
+      <c r="S42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T42" s="7" t="s">
+      <c r="T42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="7" t="str">
+      <c r="U42" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220300: { enName: 'mapProtectOther', cnName: '其他' },</v>
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>2</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="5" t="str">
+      <c r="K43" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220301</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="9" t="s">
+      <c r="Q43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="7" t="s">
+      <c r="R43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S43" s="9" t="s">
+      <c r="S43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T43" s="7" t="s">
+      <c r="T43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U43" s="7" t="str">
+      <c r="U43" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220301: { enName: 'mapProtectCrashBearer', cnName: '防撞墩' },</v>
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>2</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="5" t="str">
+      <c r="K44" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220302</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="9" t="s">
+      <c r="Q44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="7" t="s">
+      <c r="R44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S44" s="9" t="s">
+      <c r="S44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T44" s="7" t="s">
+      <c r="T44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="7" t="str">
+      <c r="U44" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220302: { enName: 'mapProtectCrashBarrier', cnName: '防撞围栏' },</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>2</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>2</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="5" t="str">
+      <c r="K45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220303</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="9" t="s">
+      <c r="Q45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R45" s="7" t="s">
+      <c r="R45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S45" s="9" t="s">
+      <c r="S45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="7" t="s">
+      <c r="T45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U45" s="7" t="str">
+      <c r="U45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220303: { enName: 'mapProtectRail', cnName: '围栏' },</v>
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>2</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="5" t="str">
+      <c r="K46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>SIC220304</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="N46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="7" t="s">
+      <c r="R46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S46" s="9" t="s">
+      <c r="S46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="7" t="s">
+      <c r="T46" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="7" t="str">
+      <c r="U46" s="6" t="str">
         <f t="shared" si="1"/>
         <v>SIC220304: { enName: 'mapProtectHeightLimit', cnName: '限高架' },</v>
       </c>
@@ -4519,10 +4519,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AU27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4533,34 +4533,36 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="11" max="15" width="3.75" customWidth="1"/>
-    <col min="17" max="18" width="3.75" customWidth="1"/>
-    <col min="19" max="19" width="12.25" customWidth="1"/>
-    <col min="20" max="20" width="3.625" customWidth="1"/>
-    <col min="21" max="21" width="3.75" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="3.75" customWidth="1"/>
-    <col min="24" max="24" width="3.5" customWidth="1"/>
-    <col min="25" max="25" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
+    <col min="14" max="18" width="3.75" customWidth="1"/>
+    <col min="20" max="21" width="3.75" customWidth="1"/>
+    <col min="22" max="22" width="12.25" customWidth="1"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
+    <col min="24" max="24" width="3.75" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
     <col min="26" max="26" width="3.75" customWidth="1"/>
-    <col min="27" max="27" width="8" customWidth="1"/>
-    <col min="28" max="28" width="3.75" customWidth="1"/>
-    <col min="30" max="30" width="3.75" customWidth="1"/>
-    <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="3.75" customWidth="1"/>
-    <col min="34" max="34" width="3.75" customWidth="1"/>
-    <col min="35" max="35" width="7.625" customWidth="1"/>
-    <col min="36" max="36" width="3.75" customWidth="1"/>
-    <col min="37" max="37" width="4.875" customWidth="1"/>
-    <col min="38" max="38" width="112.75" customWidth="1"/>
-    <col min="39" max="39" width="13.5" customWidth="1"/>
-    <col min="40" max="40" width="12.375" customWidth="1"/>
-    <col min="41" max="41" width="16" customWidth="1"/>
-    <col min="44" max="44" width="11.75" customWidth="1"/>
+    <col min="27" max="27" width="3.5" customWidth="1"/>
+    <col min="28" max="28" width="15.5" customWidth="1"/>
+    <col min="29" max="29" width="3.75" customWidth="1"/>
+    <col min="30" max="30" width="8" customWidth="1"/>
+    <col min="31" max="31" width="3.75" customWidth="1"/>
+    <col min="33" max="33" width="3.75" customWidth="1"/>
+    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="35" max="35" width="3.75" customWidth="1"/>
+    <col min="37" max="37" width="3.75" customWidth="1"/>
+    <col min="38" max="38" width="7.625" customWidth="1"/>
+    <col min="39" max="39" width="3.75" customWidth="1"/>
+    <col min="40" max="40" width="4.875" customWidth="1"/>
+    <col min="41" max="41" width="112.75" customWidth="1"/>
+    <col min="42" max="42" width="13.5" customWidth="1"/>
+    <col min="43" max="43" width="12.375" customWidth="1"/>
+    <col min="44" max="44" width="16" customWidth="1"/>
+    <col min="47" max="47" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -4574,30 +4576,29 @@
       <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="F1"/>
       <c r="G1" t="s">
         <v>124</v>
       </c>
       <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:47">
       <c r="A2" s="2">
         <v>118.720643</v>
       </c>
@@ -4629,114 +4630,120 @@
       <c r="I2" t="s">
         <v>132</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>20190120</v>
+      </c>
+      <c r="L2" t="s">
         <v>133</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>134</v>
       </c>
-      <c r="L2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" t="s">
-        <v>131</v>
-      </c>
       <c r="N2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" t="s">
         <v>136</v>
       </c>
-      <c r="O2" t="s">
-        <v>131</v>
-      </c>
       <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" t="s">
         <v>138</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" t="s">
-        <v>131</v>
       </c>
       <c r="V2" t="s">
         <v>140</v>
       </c>
-      <c r="W2" t="s">
-        <v>134</v>
+      <c r="W2" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y2" t="s">
         <v>141</v>
       </c>
       <c r="Z2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB2" t="s">
         <v>142</v>
       </c>
-      <c r="AB2" t="s">
-        <v>131</v>
-      </c>
       <c r="AC2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF2" t="s">
         <v>144</v>
       </c>
-      <c r="AF2" t="s">
-        <v>131</v>
-      </c>
       <c r="AG2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>148</v>
       </c>
-      <c r="AL2" t="str">
-        <f>I2&amp;J2&amp;K2&amp;L2&amp;H2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;U2&amp;V2&amp;W2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2</f>
+      <c r="AN2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO2" t="str">
+        <f>L2&amp;M2&amp;N2&amp;O2&amp;H2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;U2&amp;V2&amp;W2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2&amp;AN2</f>
         <v>{ position: [118.720243, 33.776052], SICCode: 'SIC110401', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>150</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AQ2" t="s">
         <v>151</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>153</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>154</v>
       </c>
+      <c r="AU2" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:47">
       <c r="A3" s="2">
         <v>118.720643</v>
       </c>
@@ -4768,114 +4775,117 @@
       <c r="I3" t="s">
         <v>132</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>133</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>134</v>
       </c>
-      <c r="L3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M3" t="s">
-        <v>131</v>
-      </c>
       <c r="N3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" t="s">
         <v>136</v>
       </c>
-      <c r="O3" t="s">
-        <v>131</v>
-      </c>
       <c r="P3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" t="s">
         <v>138</v>
       </c>
-      <c r="S3" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U3" t="s">
-        <v>131</v>
+      <c r="T3" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V3" t="s">
-        <v>140</v>
-      </c>
-      <c r="W3" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y3" t="s">
         <v>141</v>
       </c>
       <c r="Z3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" t="s">
         <v>142</v>
       </c>
-      <c r="AB3" t="s">
-        <v>131</v>
-      </c>
       <c r="AC3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF3" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" t="s">
-        <v>131</v>
-      </c>
       <c r="AG3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>146</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>148</v>
       </c>
-      <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL27" si="4">I3&amp;J3&amp;K3&amp;L3&amp;H3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3</f>
+      <c r="AN3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO3" t="str">
+        <f t="shared" ref="AO3:AO27" si="4">L3&amp;M3&amp;N3&amp;O3&amp;H3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
         <v>{ position: [118.719843, 33.775652], SICCode: 'SIC110402', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>150</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AQ3" t="s">
         <v>151</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AT3" t="s">
         <v>154</v>
       </c>
+      <c r="AU3" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:47">
       <c r="A4" s="2">
         <v>118.720643</v>
       </c>
@@ -4907,114 +4917,117 @@
       <c r="I4" t="s">
         <v>132</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>133</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>134</v>
       </c>
-      <c r="L4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" t="s">
-        <v>131</v>
-      </c>
       <c r="N4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" t="s">
         <v>136</v>
       </c>
-      <c r="O4" t="s">
-        <v>131</v>
-      </c>
       <c r="P4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" t="s">
         <v>137</v>
       </c>
-      <c r="Q4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" t="s">
         <v>138</v>
       </c>
-      <c r="S4" t="s">
-        <v>156</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U4" t="s">
-        <v>131</v>
+      <c r="T4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V4" t="s">
-        <v>140</v>
-      </c>
-      <c r="W4" t="s">
-        <v>134</v>
+        <v>157</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y4" t="s">
         <v>141</v>
       </c>
       <c r="Z4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB4" t="s">
         <v>142</v>
       </c>
-      <c r="AB4" t="s">
-        <v>131</v>
-      </c>
       <c r="AC4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4" t="s">
         <v>144</v>
       </c>
-      <c r="AF4" t="s">
-        <v>131</v>
-      </c>
       <c r="AG4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AI4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>146</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>148</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AN4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO4" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.719443, 33.775252], SICCode: 'SIC110403', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>150</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>151</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
         <v>153</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>154</v>
       </c>
+      <c r="AU4" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:47">
       <c r="A5" s="2">
         <v>118.720643</v>
       </c>
@@ -5046,114 +5059,117 @@
       <c r="I5" t="s">
         <v>132</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>133</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>134</v>
       </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" t="s">
-        <v>131</v>
-      </c>
       <c r="N5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
         <v>136</v>
       </c>
-      <c r="O5" t="s">
-        <v>131</v>
-      </c>
       <c r="P5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" t="s">
-        <v>134</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" t="s">
         <v>138</v>
       </c>
-      <c r="S5" t="s">
-        <v>157</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U5" t="s">
-        <v>131</v>
+      <c r="T5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W5" t="s">
-        <v>134</v>
+        <v>158</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y5" t="s">
         <v>141</v>
       </c>
       <c r="Z5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB5" t="s">
         <v>142</v>
       </c>
-      <c r="AB5" t="s">
-        <v>131</v>
-      </c>
       <c r="AC5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD5" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF5" t="s">
         <v>144</v>
       </c>
-      <c r="AF5" t="s">
-        <v>131</v>
-      </c>
       <c r="AG5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>146</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM5" t="s">
         <v>148</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="AN5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO5" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.719043, 33.774852], SICCode: 'SIC110404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>150</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AQ5" t="s">
         <v>151</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AR5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AS5" t="s">
         <v>153</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AT5" t="s">
         <v>154</v>
       </c>
+      <c r="AU5" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:47">
       <c r="A6" s="2">
         <v>118.720643</v>
       </c>
@@ -5185,114 +5201,117 @@
       <c r="I6" t="s">
         <v>132</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>133</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>134</v>
       </c>
-      <c r="L6" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" t="s">
-        <v>131</v>
-      </c>
       <c r="N6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6" t="s">
         <v>136</v>
       </c>
-      <c r="O6" t="s">
-        <v>131</v>
-      </c>
       <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" t="s">
         <v>138</v>
       </c>
-      <c r="S6" t="s">
-        <v>158</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" t="s">
-        <v>131</v>
+      <c r="T6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V6" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" t="s">
-        <v>134</v>
+        <v>159</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y6" t="s">
         <v>141</v>
       </c>
       <c r="Z6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB6" t="s">
         <v>142</v>
       </c>
-      <c r="AB6" t="s">
-        <v>131</v>
-      </c>
       <c r="AC6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD6" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AE6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF6" t="s">
         <v>144</v>
       </c>
-      <c r="AF6" t="s">
-        <v>131</v>
-      </c>
       <c r="AG6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH6" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI6" s="10" t="s">
+      <c r="AI6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>146</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AM6" t="s">
         <v>148</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="AN6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO6" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.718643, 33.774452], SICCode: 'SIC110405', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>150</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AQ6" t="s">
         <v>151</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AR6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AS6" t="s">
         <v>153</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
         <v>154</v>
       </c>
+      <c r="AU6" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:47">
       <c r="A7" s="2">
         <v>118.720643</v>
       </c>
@@ -5324,114 +5343,117 @@
       <c r="I7" t="s">
         <v>132</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>133</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>134</v>
       </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" t="s">
-        <v>131</v>
-      </c>
       <c r="N7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" t="s">
         <v>136</v>
       </c>
-      <c r="O7" t="s">
-        <v>131</v>
-      </c>
       <c r="P7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" t="s">
-        <v>134</v>
-      </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" t="s">
         <v>138</v>
       </c>
-      <c r="S7" t="s">
-        <v>159</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U7" t="s">
-        <v>131</v>
+      <c r="T7" t="s">
+        <v>135</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V7" t="s">
-        <v>140</v>
-      </c>
-      <c r="W7" t="s">
-        <v>134</v>
+        <v>160</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y7" t="s">
         <v>141</v>
       </c>
       <c r="Z7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB7" t="s">
         <v>142</v>
       </c>
-      <c r="AB7" t="s">
-        <v>131</v>
-      </c>
       <c r="AC7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD7" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AE7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF7" t="s">
         <v>144</v>
       </c>
-      <c r="AF7" t="s">
-        <v>131</v>
-      </c>
       <c r="AG7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AI7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>146</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>148</v>
       </c>
-      <c r="AL7" t="str">
+      <c r="AN7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO7" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.718243, 33.774052], SICCode: 'SIC110406', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
         <v>150</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AQ7" t="s">
         <v>151</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AR7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AS7" t="s">
         <v>153</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AT7" t="s">
         <v>154</v>
       </c>
+      <c r="AU7" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:47">
       <c r="A8" s="2">
         <v>118.720643</v>
       </c>
@@ -5463,114 +5485,117 @@
       <c r="I8" t="s">
         <v>132</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>133</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>134</v>
       </c>
-      <c r="L8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" t="s">
-        <v>131</v>
-      </c>
       <c r="N8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" t="s">
         <v>136</v>
       </c>
-      <c r="O8" t="s">
-        <v>131</v>
-      </c>
       <c r="P8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" t="s">
         <v>137</v>
       </c>
-      <c r="Q8" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" t="s">
+        <v>131</v>
+      </c>
+      <c r="S8" t="s">
         <v>138</v>
       </c>
-      <c r="S8" t="s">
-        <v>160</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U8" t="s">
-        <v>131</v>
+      <c r="T8" t="s">
+        <v>135</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V8" t="s">
-        <v>140</v>
-      </c>
-      <c r="W8" t="s">
-        <v>134</v>
+        <v>161</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y8" t="s">
         <v>141</v>
       </c>
       <c r="Z8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB8" t="s">
         <v>142</v>
       </c>
-      <c r="AB8" t="s">
-        <v>131</v>
-      </c>
       <c r="AC8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD8" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AE8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF8" t="s">
         <v>144</v>
       </c>
-      <c r="AF8" t="s">
-        <v>131</v>
-      </c>
       <c r="AG8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AI8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>146</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AM8" t="s">
         <v>148</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AN8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO8" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.717843, 33.773652], SICCode: 'SIC120100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
         <v>150</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AQ8" t="s">
         <v>151</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AR8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AS8" t="s">
         <v>153</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AT8" t="s">
         <v>154</v>
       </c>
+      <c r="AU8" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:47">
       <c r="A9" s="2">
         <v>118.720643</v>
       </c>
@@ -5602,114 +5627,117 @@
       <c r="I9" t="s">
         <v>132</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>133</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>134</v>
       </c>
-      <c r="L9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M9" t="s">
-        <v>131</v>
-      </c>
       <c r="N9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" t="s">
         <v>136</v>
       </c>
-      <c r="O9" t="s">
-        <v>131</v>
-      </c>
       <c r="P9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q9" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" t="s">
-        <v>134</v>
-      </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9" t="s">
         <v>138</v>
       </c>
-      <c r="S9" t="s">
-        <v>161</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U9" t="s">
-        <v>131</v>
+      <c r="T9" t="s">
+        <v>135</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V9" t="s">
-        <v>140</v>
-      </c>
-      <c r="W9" t="s">
-        <v>134</v>
+        <v>162</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y9" t="s">
         <v>141</v>
       </c>
       <c r="Z9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB9" t="s">
         <v>142</v>
       </c>
-      <c r="AB9" t="s">
-        <v>131</v>
-      </c>
       <c r="AC9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AE9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF9" t="s">
         <v>144</v>
       </c>
-      <c r="AF9" t="s">
-        <v>131</v>
-      </c>
       <c r="AG9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH9" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH9" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI9" s="10" t="s">
+      <c r="AI9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>146</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
         <v>148</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AN9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO9" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.717443, 33.773252], SICCode: 'SIC120101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
         <v>150</v>
       </c>
-      <c r="AO9" s="3" t="s">
+      <c r="AQ9" t="s">
         <v>151</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AR9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AS9" t="s">
         <v>153</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AT9" t="s">
         <v>154</v>
       </c>
+      <c r="AU9" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:47">
       <c r="A10" s="2">
         <v>118.720643</v>
       </c>
@@ -5741,114 +5769,117 @@
       <c r="I10" t="s">
         <v>132</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>133</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>134</v>
       </c>
-      <c r="L10" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" t="s">
-        <v>131</v>
-      </c>
       <c r="N10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s">
         <v>136</v>
       </c>
-      <c r="O10" t="s">
-        <v>131</v>
-      </c>
       <c r="P10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" t="s">
-        <v>134</v>
-      </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" t="s">
         <v>138</v>
       </c>
-      <c r="S10" t="s">
-        <v>162</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" t="s">
-        <v>131</v>
+      <c r="T10" t="s">
+        <v>135</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V10" t="s">
-        <v>140</v>
-      </c>
-      <c r="W10" t="s">
-        <v>134</v>
+        <v>163</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
         <v>141</v>
       </c>
       <c r="Z10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB10" t="s">
         <v>142</v>
       </c>
-      <c r="AB10" t="s">
-        <v>131</v>
-      </c>
       <c r="AC10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AE10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF10" t="s">
         <v>144</v>
       </c>
-      <c r="AF10" t="s">
-        <v>131</v>
-      </c>
       <c r="AG10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH10" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI10" s="10" t="s">
+      <c r="AI10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>146</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL10" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AM10" t="s">
         <v>148</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AN10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO10" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.717043, 33.772852], SICCode: 'SIC120102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN10" t="s">
+      <c r="AP10" t="s">
         <v>150</v>
       </c>
-      <c r="AO10" s="3" t="s">
+      <c r="AQ10" t="s">
         <v>151</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AR10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AS10" t="s">
         <v>153</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AT10" t="s">
         <v>154</v>
       </c>
+      <c r="AU10" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:47">
       <c r="A11" s="2">
         <v>118.720643</v>
       </c>
@@ -5880,114 +5911,117 @@
       <c r="I11" t="s">
         <v>132</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>133</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" t="s">
-        <v>131</v>
-      </c>
       <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
         <v>136</v>
       </c>
-      <c r="O11" t="s">
-        <v>131</v>
-      </c>
       <c r="P11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" t="s">
         <v>137</v>
       </c>
-      <c r="Q11" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" t="s">
+        <v>131</v>
+      </c>
+      <c r="S11" t="s">
         <v>138</v>
       </c>
-      <c r="S11" t="s">
-        <v>163</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U11" t="s">
-        <v>131</v>
+      <c r="T11" t="s">
+        <v>135</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V11" t="s">
-        <v>140</v>
-      </c>
-      <c r="W11" t="s">
-        <v>134</v>
+        <v>164</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
         <v>141</v>
       </c>
       <c r="Z11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB11" t="s">
         <v>142</v>
       </c>
-      <c r="AB11" t="s">
-        <v>131</v>
-      </c>
       <c r="AC11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE11" s="10" t="s">
+      <c r="AE11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF11" t="s">
         <v>144</v>
       </c>
-      <c r="AF11" t="s">
-        <v>131</v>
-      </c>
       <c r="AG11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH11" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI11" s="10" t="s">
+      <c r="AI11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>146</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL11" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>148</v>
       </c>
-      <c r="AL11" t="str">
+      <c r="AN11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO11" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.716643, 33.772452], SICCode: 'SIC120103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN11" t="s">
+      <c r="AP11" t="s">
         <v>150</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AQ11" t="s">
         <v>151</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AR11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AS11" t="s">
         <v>153</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AT11" t="s">
         <v>154</v>
       </c>
+      <c r="AU11" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:47">
       <c r="A12" s="2">
         <v>118.720643</v>
       </c>
@@ -6019,114 +6053,117 @@
       <c r="I12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>133</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>134</v>
       </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" t="s">
-        <v>131</v>
-      </c>
       <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
         <v>136</v>
       </c>
-      <c r="O12" t="s">
-        <v>131</v>
-      </c>
       <c r="P12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q12" t="s">
         <v>137</v>
       </c>
-      <c r="Q12" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" t="s">
         <v>138</v>
       </c>
-      <c r="S12" t="s">
-        <v>164</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U12" t="s">
-        <v>131</v>
+      <c r="T12" t="s">
+        <v>135</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V12" t="s">
-        <v>140</v>
-      </c>
-      <c r="W12" t="s">
-        <v>134</v>
+        <v>165</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y12" t="s">
         <v>141</v>
       </c>
       <c r="Z12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" t="s">
         <v>142</v>
       </c>
-      <c r="AB12" t="s">
-        <v>131</v>
-      </c>
       <c r="AC12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD12" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE12" s="10" t="s">
+      <c r="AE12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF12" t="s">
         <v>144</v>
       </c>
-      <c r="AF12" t="s">
-        <v>131</v>
-      </c>
       <c r="AG12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH12" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI12" s="10" t="s">
+      <c r="AI12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>146</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>148</v>
       </c>
-      <c r="AL12" t="str">
+      <c r="AN12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO12" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.716243, 33.772052], SICCode: 'SIC120104', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN12" t="s">
+      <c r="AP12" t="s">
         <v>150</v>
       </c>
-      <c r="AO12" s="3" t="s">
+      <c r="AQ12" t="s">
         <v>151</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AR12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AS12" t="s">
         <v>153</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AT12" t="s">
         <v>154</v>
       </c>
+      <c r="AU12" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:47">
       <c r="A13" s="2">
         <v>118.720643</v>
       </c>
@@ -6158,114 +6195,117 @@
       <c r="I13" t="s">
         <v>132</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>134</v>
       </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" t="s">
-        <v>131</v>
-      </c>
       <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
         <v>136</v>
       </c>
-      <c r="O13" t="s">
-        <v>131</v>
-      </c>
       <c r="P13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" t="s">
         <v>137</v>
       </c>
-      <c r="Q13" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" t="s">
+        <v>131</v>
+      </c>
+      <c r="S13" t="s">
         <v>138</v>
       </c>
-      <c r="S13" t="s">
-        <v>165</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U13" t="s">
-        <v>131</v>
+      <c r="T13" t="s">
+        <v>135</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V13" t="s">
-        <v>140</v>
-      </c>
-      <c r="W13" t="s">
-        <v>134</v>
+        <v>166</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s">
         <v>141</v>
       </c>
       <c r="Z13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB13" t="s">
         <v>142</v>
       </c>
-      <c r="AB13" t="s">
-        <v>131</v>
-      </c>
       <c r="AC13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD13" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE13" s="10" t="s">
+      <c r="AE13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF13" t="s">
         <v>144</v>
       </c>
-      <c r="AF13" t="s">
-        <v>131</v>
-      </c>
       <c r="AG13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH13" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI13" s="10" t="s">
+      <c r="AI13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>146</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL13" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>148</v>
       </c>
-      <c r="AL13" t="str">
+      <c r="AN13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO13" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.715843, 33.771652], SICCode: 'SIC210100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM13" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN13" t="s">
+      <c r="AP13" t="s">
         <v>150</v>
       </c>
-      <c r="AO13" s="3" t="s">
+      <c r="AQ13" t="s">
         <v>151</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AR13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AS13" t="s">
         <v>153</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AT13" t="s">
         <v>154</v>
       </c>
+      <c r="AU13" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:47">
       <c r="A14" s="2">
         <v>118.720643</v>
       </c>
@@ -6297,114 +6337,117 @@
       <c r="I14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>133</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>134</v>
       </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" t="s">
-        <v>131</v>
-      </c>
       <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
         <v>136</v>
       </c>
-      <c r="O14" t="s">
-        <v>131</v>
-      </c>
       <c r="P14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14" t="s">
         <v>137</v>
       </c>
-      <c r="Q14" t="s">
-        <v>134</v>
-      </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" t="s">
         <v>138</v>
       </c>
-      <c r="S14" t="s">
-        <v>166</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14" t="s">
-        <v>131</v>
+      <c r="T14" t="s">
+        <v>135</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V14" t="s">
-        <v>140</v>
-      </c>
-      <c r="W14" t="s">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y14" t="s">
         <v>141</v>
       </c>
       <c r="Z14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB14" t="s">
         <v>142</v>
       </c>
-      <c r="AB14" t="s">
-        <v>131</v>
-      </c>
       <c r="AC14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE14" s="10" t="s">
+      <c r="AE14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF14" t="s">
         <v>144</v>
       </c>
-      <c r="AF14" t="s">
-        <v>131</v>
-      </c>
       <c r="AG14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI14" s="10" t="s">
+      <c r="AI14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>146</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL14" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>148</v>
       </c>
-      <c r="AL14" t="str">
+      <c r="AN14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO14" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.715443, 33.771252], SICCode: 'SIC210101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN14" t="s">
+      <c r="AP14" t="s">
         <v>150</v>
       </c>
-      <c r="AO14" s="3" t="s">
+      <c r="AQ14" t="s">
         <v>151</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AR14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AS14" t="s">
         <v>153</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AT14" t="s">
         <v>154</v>
       </c>
+      <c r="AU14" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:47">
       <c r="A15" s="2">
         <v>118.720643</v>
       </c>
@@ -6436,114 +6479,117 @@
       <c r="I15" t="s">
         <v>132</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>133</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>134</v>
       </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" t="s">
-        <v>131</v>
-      </c>
       <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
         <v>136</v>
       </c>
-      <c r="O15" t="s">
-        <v>131</v>
-      </c>
       <c r="P15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q15" t="s">
         <v>137</v>
       </c>
-      <c r="Q15" t="s">
-        <v>134</v>
-      </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" t="s">
+        <v>131</v>
+      </c>
+      <c r="S15" t="s">
         <v>138</v>
       </c>
-      <c r="S15" t="s">
-        <v>167</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U15" t="s">
-        <v>131</v>
+      <c r="T15" t="s">
+        <v>135</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V15" t="s">
-        <v>140</v>
-      </c>
-      <c r="W15" t="s">
-        <v>134</v>
+        <v>168</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y15" t="s">
         <v>141</v>
       </c>
       <c r="Z15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB15" t="s">
         <v>142</v>
       </c>
-      <c r="AB15" t="s">
-        <v>131</v>
-      </c>
       <c r="AC15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD15" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE15" s="10" t="s">
+      <c r="AE15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF15" t="s">
         <v>144</v>
       </c>
-      <c r="AF15" t="s">
-        <v>131</v>
-      </c>
       <c r="AG15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH15" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI15" s="10" t="s">
+      <c r="AI15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>146</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>148</v>
       </c>
-      <c r="AL15" t="str">
+      <c r="AN15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO15" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.715043, 33.770852], SICCode: 'SIC210202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN15" t="s">
+      <c r="AP15" t="s">
         <v>150</v>
       </c>
-      <c r="AO15" s="3" t="s">
+      <c r="AQ15" t="s">
         <v>151</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AR15" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AS15" t="s">
         <v>153</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AT15" t="s">
         <v>154</v>
       </c>
+      <c r="AU15" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:47">
       <c r="A16" s="2">
         <v>118.720643</v>
       </c>
@@ -6575,114 +6621,117 @@
       <c r="I16" t="s">
         <v>132</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>133</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>134</v>
       </c>
-      <c r="L16" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" t="s">
-        <v>131</v>
-      </c>
       <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
         <v>136</v>
       </c>
-      <c r="O16" t="s">
-        <v>131</v>
-      </c>
       <c r="P16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" t="s">
         <v>137</v>
       </c>
-      <c r="Q16" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" t="s">
+        <v>131</v>
+      </c>
+      <c r="S16" t="s">
         <v>138</v>
       </c>
-      <c r="S16" t="s">
-        <v>168</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U16" t="s">
-        <v>131</v>
+      <c r="T16" t="s">
+        <v>135</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V16" t="s">
-        <v>140</v>
-      </c>
-      <c r="W16" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y16" t="s">
         <v>141</v>
       </c>
       <c r="Z16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB16" t="s">
         <v>142</v>
       </c>
-      <c r="AB16" t="s">
-        <v>131</v>
-      </c>
       <c r="AC16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD16" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE16" s="10" t="s">
+      <c r="AE16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF16" t="s">
         <v>144</v>
       </c>
-      <c r="AF16" t="s">
-        <v>131</v>
-      </c>
       <c r="AG16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH16" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI16" s="10" t="s">
+      <c r="AI16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>146</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>148</v>
       </c>
-      <c r="AL16" t="str">
+      <c r="AN16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO16" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.714643, 33.770452], SICCode: 'SIC210303', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN16" t="s">
+      <c r="AP16" t="s">
         <v>150</v>
       </c>
-      <c r="AO16" s="3" t="s">
+      <c r="AQ16" t="s">
         <v>151</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AR16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AS16" t="s">
         <v>153</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AT16" t="s">
         <v>154</v>
       </c>
+      <c r="AU16" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:47">
       <c r="A17" s="2">
         <v>118.720643</v>
       </c>
@@ -6714,114 +6763,117 @@
       <c r="I17" t="s">
         <v>132</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>133</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>134</v>
       </c>
-      <c r="L17" t="s">
-        <v>135</v>
-      </c>
-      <c r="M17" t="s">
-        <v>131</v>
-      </c>
       <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
         <v>136</v>
       </c>
-      <c r="O17" t="s">
-        <v>131</v>
-      </c>
       <c r="P17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" t="s">
         <v>137</v>
       </c>
-      <c r="Q17" t="s">
-        <v>134</v>
-      </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S17" t="s">
         <v>138</v>
       </c>
-      <c r="S17" t="s">
-        <v>169</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U17" t="s">
-        <v>131</v>
+      <c r="T17" t="s">
+        <v>135</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V17" t="s">
-        <v>140</v>
-      </c>
-      <c r="W17" t="s">
-        <v>134</v>
+        <v>170</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y17" t="s">
         <v>141</v>
       </c>
       <c r="Z17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB17" t="s">
         <v>142</v>
       </c>
-      <c r="AB17" t="s">
-        <v>131</v>
-      </c>
       <c r="AC17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD17" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE17" s="10" t="s">
+      <c r="AE17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF17" t="s">
         <v>144</v>
       </c>
-      <c r="AF17" t="s">
-        <v>131</v>
-      </c>
       <c r="AG17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH17" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI17" s="10" t="s">
+      <c r="AI17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>146</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>148</v>
       </c>
-      <c r="AL17" t="str">
+      <c r="AN17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO17" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.714243, 33.770052], SICCode: 'SIC210404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN17" t="s">
+      <c r="AP17" t="s">
         <v>150</v>
       </c>
-      <c r="AO17" s="3" t="s">
+      <c r="AQ17" t="s">
         <v>151</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AR17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AS17" t="s">
         <v>153</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AT17" t="s">
         <v>154</v>
       </c>
+      <c r="AU17" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:47">
       <c r="A18" s="2">
         <v>118.720643</v>
       </c>
@@ -6853,114 +6905,117 @@
       <c r="I18" t="s">
         <v>132</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>133</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>134</v>
       </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" t="s">
-        <v>131</v>
-      </c>
       <c r="N18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" t="s">
         <v>136</v>
       </c>
-      <c r="O18" t="s">
-        <v>131</v>
-      </c>
       <c r="P18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" t="s">
         <v>137</v>
       </c>
-      <c r="Q18" t="s">
-        <v>134</v>
-      </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18" t="s">
         <v>138</v>
       </c>
-      <c r="S18" t="s">
-        <v>170</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U18" t="s">
-        <v>131</v>
+      <c r="T18" t="s">
+        <v>135</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V18" t="s">
-        <v>140</v>
-      </c>
-      <c r="W18" t="s">
-        <v>134</v>
+        <v>171</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y18" t="s">
         <v>141</v>
       </c>
       <c r="Z18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" t="s">
         <v>142</v>
       </c>
-      <c r="AB18" t="s">
-        <v>131</v>
-      </c>
       <c r="AC18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD18" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE18" s="10" t="s">
+      <c r="AE18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF18" t="s">
         <v>144</v>
       </c>
-      <c r="AF18" t="s">
-        <v>131</v>
-      </c>
       <c r="AG18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH18" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AI18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>146</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL18" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AM18" t="s">
         <v>148</v>
       </c>
-      <c r="AL18" t="str">
+      <c r="AN18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO18" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.713843, 33.769652], SICCode: 'SIC220100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM18" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN18" t="s">
+      <c r="AP18" t="s">
         <v>150</v>
       </c>
-      <c r="AO18" s="3" t="s">
+      <c r="AQ18" t="s">
         <v>151</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AR18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AS18" t="s">
         <v>153</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AT18" t="s">
         <v>154</v>
       </c>
+      <c r="AU18" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:47">
       <c r="A19" s="2">
         <v>118.720643</v>
       </c>
@@ -6992,114 +7047,117 @@
       <c r="I19" t="s">
         <v>132</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>133</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>134</v>
       </c>
-      <c r="L19" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" t="s">
-        <v>131</v>
-      </c>
       <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
         <v>136</v>
       </c>
-      <c r="O19" t="s">
-        <v>131</v>
-      </c>
       <c r="P19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" t="s">
         <v>137</v>
       </c>
-      <c r="Q19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" t="s">
+        <v>131</v>
+      </c>
+      <c r="S19" t="s">
         <v>138</v>
       </c>
-      <c r="S19" t="s">
-        <v>171</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U19" t="s">
-        <v>131</v>
+      <c r="T19" t="s">
+        <v>135</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V19" t="s">
-        <v>140</v>
-      </c>
-      <c r="W19" t="s">
-        <v>134</v>
+        <v>172</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y19" t="s">
         <v>141</v>
       </c>
       <c r="Z19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB19" t="s">
         <v>142</v>
       </c>
-      <c r="AB19" t="s">
-        <v>131</v>
-      </c>
       <c r="AC19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD19" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE19" s="10" t="s">
+      <c r="AE19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF19" t="s">
         <v>144</v>
       </c>
-      <c r="AF19" t="s">
-        <v>131</v>
-      </c>
       <c r="AG19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI19" s="10" t="s">
+      <c r="AI19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>146</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL19" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM19" t="s">
         <v>148</v>
       </c>
-      <c r="AL19" t="str">
+      <c r="AN19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO19" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.713443, 33.769252], SICCode: 'SIC220101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN19" t="s">
+      <c r="AP19" t="s">
         <v>150</v>
       </c>
-      <c r="AO19" s="3" t="s">
+      <c r="AQ19" t="s">
         <v>151</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AR19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AS19" t="s">
         <v>153</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AT19" t="s">
         <v>154</v>
       </c>
+      <c r="AU19" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:47">
       <c r="A20" s="2">
         <v>118.720643</v>
       </c>
@@ -7131,114 +7189,117 @@
       <c r="I20" t="s">
         <v>132</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>133</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>134</v>
       </c>
-      <c r="L20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M20" t="s">
-        <v>131</v>
-      </c>
       <c r="N20" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" t="s">
         <v>136</v>
       </c>
-      <c r="O20" t="s">
-        <v>131</v>
-      </c>
       <c r="P20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" t="s">
         <v>137</v>
       </c>
-      <c r="Q20" t="s">
-        <v>134</v>
-      </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" t="s">
+        <v>131</v>
+      </c>
+      <c r="S20" t="s">
         <v>138</v>
       </c>
-      <c r="S20" t="s">
-        <v>172</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U20" t="s">
-        <v>131</v>
+      <c r="T20" t="s">
+        <v>135</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V20" t="s">
-        <v>140</v>
-      </c>
-      <c r="W20" t="s">
-        <v>134</v>
+        <v>173</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y20" t="s">
         <v>141</v>
       </c>
       <c r="Z20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB20" t="s">
         <v>142</v>
       </c>
-      <c r="AB20" t="s">
-        <v>131</v>
-      </c>
       <c r="AC20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD20" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE20" s="10" t="s">
+      <c r="AE20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF20" t="s">
         <v>144</v>
       </c>
-      <c r="AF20" t="s">
-        <v>131</v>
-      </c>
       <c r="AG20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH20" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI20" s="10" t="s">
+      <c r="AI20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>146</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AM20" t="s">
         <v>148</v>
       </c>
-      <c r="AL20" t="str">
+      <c r="AN20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO20" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.713043, 33.768852], SICCode: 'SIC220102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN20" t="s">
+      <c r="AP20" t="s">
         <v>150</v>
       </c>
-      <c r="AO20" s="3" t="s">
+      <c r="AQ20" t="s">
         <v>151</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AR20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AS20" t="s">
         <v>153</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AT20" t="s">
         <v>154</v>
       </c>
+      <c r="AU20" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:47">
       <c r="A21" s="2">
         <v>118.720643</v>
       </c>
@@ -7270,114 +7331,117 @@
       <c r="I21" t="s">
         <v>132</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>133</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>134</v>
       </c>
-      <c r="L21" t="s">
-        <v>135</v>
-      </c>
-      <c r="M21" t="s">
-        <v>131</v>
-      </c>
       <c r="N21" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" t="s">
         <v>136</v>
       </c>
-      <c r="O21" t="s">
-        <v>131</v>
-      </c>
       <c r="P21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" t="s">
         <v>137</v>
       </c>
-      <c r="Q21" t="s">
-        <v>134</v>
-      </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S21" t="s">
         <v>138</v>
       </c>
-      <c r="S21" t="s">
-        <v>173</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U21" t="s">
-        <v>131</v>
+      <c r="T21" t="s">
+        <v>135</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V21" t="s">
-        <v>140</v>
-      </c>
-      <c r="W21" t="s">
-        <v>134</v>
+        <v>174</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y21" t="s">
         <v>141</v>
       </c>
       <c r="Z21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB21" t="s">
         <v>142</v>
       </c>
-      <c r="AB21" t="s">
-        <v>131</v>
-      </c>
       <c r="AC21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD21" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE21" s="10" t="s">
+      <c r="AE21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF21" t="s">
         <v>144</v>
       </c>
-      <c r="AF21" t="s">
-        <v>131</v>
-      </c>
       <c r="AG21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH21" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI21" s="10" t="s">
+      <c r="AI21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>146</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL21" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AM21" t="s">
         <v>148</v>
       </c>
-      <c r="AL21" t="str">
+      <c r="AN21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO21" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.712643, 33.768452], SICCode: 'SIC220103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM21" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN21" t="s">
+      <c r="AP21" t="s">
         <v>150</v>
       </c>
-      <c r="AO21" s="3" t="s">
+      <c r="AQ21" t="s">
         <v>151</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AR21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AS21" t="s">
         <v>153</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AT21" t="s">
         <v>154</v>
       </c>
+      <c r="AU21" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:47">
       <c r="A22" s="2">
         <v>118.720643</v>
       </c>
@@ -7409,114 +7473,117 @@
       <c r="I22" t="s">
         <v>132</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>133</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>134</v>
       </c>
-      <c r="L22" t="s">
-        <v>135</v>
-      </c>
-      <c r="M22" t="s">
-        <v>131</v>
-      </c>
       <c r="N22" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" t="s">
         <v>136</v>
       </c>
-      <c r="O22" t="s">
-        <v>131</v>
-      </c>
       <c r="P22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" t="s">
         <v>137</v>
       </c>
-      <c r="Q22" t="s">
-        <v>134</v>
-      </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" t="s">
+        <v>131</v>
+      </c>
+      <c r="S22" t="s">
         <v>138</v>
       </c>
-      <c r="S22" t="s">
-        <v>174</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U22" t="s">
-        <v>131</v>
+      <c r="T22" t="s">
+        <v>135</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V22" t="s">
-        <v>140</v>
-      </c>
-      <c r="W22" t="s">
-        <v>134</v>
+        <v>175</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y22" t="s">
         <v>141</v>
       </c>
       <c r="Z22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB22" t="s">
         <v>142</v>
       </c>
-      <c r="AB22" t="s">
-        <v>131</v>
-      </c>
       <c r="AC22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE22" s="10" t="s">
+      <c r="AE22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF22" t="s">
         <v>144</v>
       </c>
-      <c r="AF22" t="s">
-        <v>131</v>
-      </c>
       <c r="AG22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH22" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI22" s="10" t="s">
+      <c r="AI22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>146</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL22" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AM22" t="s">
         <v>148</v>
       </c>
-      <c r="AL22" t="str">
+      <c r="AN22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO22" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.712243, 33.768052], SICCode: 'SIC220200', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN22" t="s">
+      <c r="AP22" t="s">
         <v>150</v>
       </c>
-      <c r="AO22" s="3" t="s">
+      <c r="AQ22" t="s">
         <v>151</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AR22" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AS22" t="s">
         <v>153</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AT22" t="s">
         <v>154</v>
       </c>
+      <c r="AU22" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:47">
       <c r="A23" s="2">
         <v>118.720643</v>
       </c>
@@ -7548,114 +7615,117 @@
       <c r="I23" t="s">
         <v>132</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>133</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>134</v>
       </c>
-      <c r="L23" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" t="s">
-        <v>131</v>
-      </c>
       <c r="N23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" t="s">
         <v>136</v>
       </c>
-      <c r="O23" t="s">
-        <v>131</v>
-      </c>
       <c r="P23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q23" t="s">
         <v>137</v>
       </c>
-      <c r="Q23" t="s">
-        <v>134</v>
-      </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" t="s">
+        <v>131</v>
+      </c>
+      <c r="S23" t="s">
         <v>138</v>
       </c>
-      <c r="S23" t="s">
-        <v>175</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U23" t="s">
-        <v>131</v>
+      <c r="T23" t="s">
+        <v>135</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V23" t="s">
-        <v>140</v>
-      </c>
-      <c r="W23" t="s">
-        <v>134</v>
+        <v>176</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y23" t="s">
         <v>141</v>
       </c>
       <c r="Z23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB23" t="s">
         <v>142</v>
       </c>
-      <c r="AB23" t="s">
-        <v>131</v>
-      </c>
       <c r="AC23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD23" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE23" s="10" t="s">
+      <c r="AE23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF23" t="s">
         <v>144</v>
       </c>
-      <c r="AF23" t="s">
-        <v>131</v>
-      </c>
       <c r="AG23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH23" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI23" s="10" t="s">
+      <c r="AI23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>146</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL23" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AM23" t="s">
         <v>148</v>
       </c>
-      <c r="AL23" t="str">
+      <c r="AN23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO23" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.711843, 33.767652], SICCode: 'SIC220201', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN23" t="s">
+      <c r="AP23" t="s">
         <v>150</v>
       </c>
-      <c r="AO23" s="3" t="s">
+      <c r="AQ23" t="s">
         <v>151</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AR23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AS23" t="s">
         <v>153</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AT23" t="s">
         <v>154</v>
       </c>
+      <c r="AU23" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:47">
       <c r="A24" s="2">
         <v>118.720643</v>
       </c>
@@ -7687,114 +7757,117 @@
       <c r="I24" t="s">
         <v>132</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>133</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>134</v>
       </c>
-      <c r="L24" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" t="s">
-        <v>131</v>
-      </c>
       <c r="N24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" t="s">
         <v>136</v>
       </c>
-      <c r="O24" t="s">
-        <v>131</v>
-      </c>
       <c r="P24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" t="s">
         <v>137</v>
       </c>
-      <c r="Q24" t="s">
-        <v>134</v>
-      </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" t="s">
+        <v>131</v>
+      </c>
+      <c r="S24" t="s">
         <v>138</v>
       </c>
-      <c r="S24" t="s">
-        <v>176</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U24" t="s">
-        <v>131</v>
+      <c r="T24" t="s">
+        <v>135</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V24" t="s">
-        <v>140</v>
-      </c>
-      <c r="W24" t="s">
-        <v>134</v>
+        <v>177</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y24" t="s">
         <v>141</v>
       </c>
       <c r="Z24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB24" t="s">
         <v>142</v>
       </c>
-      <c r="AB24" t="s">
-        <v>131</v>
-      </c>
       <c r="AC24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE24" s="10" t="s">
+      <c r="AE24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF24" t="s">
         <v>144</v>
       </c>
-      <c r="AF24" t="s">
-        <v>131</v>
-      </c>
       <c r="AG24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH24" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI24" s="10" t="s">
+      <c r="AI24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>146</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL24" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AM24" t="s">
         <v>148</v>
       </c>
-      <c r="AL24" t="str">
+      <c r="AN24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO24" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.711443, 33.767252], SICCode: 'SIC220202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN24" t="s">
+      <c r="AP24" t="s">
         <v>150</v>
       </c>
-      <c r="AO24" s="3" t="s">
+      <c r="AQ24" t="s">
         <v>151</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AR24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AS24" t="s">
         <v>153</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AT24" t="s">
         <v>154</v>
       </c>
+      <c r="AU24" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:47">
       <c r="A25" s="2">
         <v>118.720643</v>
       </c>
@@ -7826,114 +7899,117 @@
       <c r="I25" t="s">
         <v>132</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>133</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>134</v>
       </c>
-      <c r="L25" t="s">
-        <v>135</v>
-      </c>
-      <c r="M25" t="s">
-        <v>131</v>
-      </c>
       <c r="N25" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" t="s">
         <v>136</v>
       </c>
-      <c r="O25" t="s">
-        <v>131</v>
-      </c>
       <c r="P25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" t="s">
         <v>137</v>
       </c>
-      <c r="Q25" t="s">
-        <v>134</v>
-      </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" t="s">
+        <v>131</v>
+      </c>
+      <c r="S25" t="s">
         <v>138</v>
       </c>
-      <c r="S25" t="s">
-        <v>177</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U25" t="s">
-        <v>131</v>
+      <c r="T25" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V25" t="s">
-        <v>140</v>
-      </c>
-      <c r="W25" t="s">
-        <v>134</v>
+        <v>178</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y25" t="s">
         <v>141</v>
       </c>
       <c r="Z25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB25" t="s">
         <v>142</v>
       </c>
-      <c r="AB25" t="s">
-        <v>131</v>
-      </c>
       <c r="AC25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE25" s="10" t="s">
+      <c r="AE25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF25" t="s">
         <v>144</v>
       </c>
-      <c r="AF25" t="s">
-        <v>131</v>
-      </c>
       <c r="AG25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI25" s="10" t="s">
+      <c r="AI25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>146</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL25" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AM25" t="s">
         <v>148</v>
       </c>
-      <c r="AL25" t="str">
+      <c r="AN25" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO25" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.711043, 33.766852], SICCode: 'SIC220203', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM25" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN25" t="s">
+      <c r="AP25" t="s">
         <v>150</v>
       </c>
-      <c r="AO25" s="3" t="s">
+      <c r="AQ25" t="s">
         <v>151</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AR25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AS25" t="s">
         <v>153</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AT25" t="s">
         <v>154</v>
       </c>
+      <c r="AU25" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:47">
       <c r="A26" s="2">
         <v>118.720643</v>
       </c>
@@ -7965,114 +8041,117 @@
       <c r="I26" t="s">
         <v>132</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>133</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>134</v>
       </c>
-      <c r="L26" t="s">
-        <v>135</v>
-      </c>
-      <c r="M26" t="s">
-        <v>131</v>
-      </c>
       <c r="N26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O26" t="s">
         <v>136</v>
       </c>
-      <c r="O26" t="s">
-        <v>131</v>
-      </c>
       <c r="P26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" t="s">
         <v>137</v>
       </c>
-      <c r="Q26" t="s">
-        <v>134</v>
-      </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" t="s">
+        <v>131</v>
+      </c>
+      <c r="S26" t="s">
         <v>138</v>
       </c>
-      <c r="S26" t="s">
-        <v>178</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U26" t="s">
-        <v>131</v>
+      <c r="T26" t="s">
+        <v>135</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V26" t="s">
-        <v>140</v>
-      </c>
-      <c r="W26" t="s">
-        <v>134</v>
+        <v>179</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y26" t="s">
         <v>141</v>
       </c>
       <c r="Z26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB26" t="s">
         <v>142</v>
       </c>
-      <c r="AB26" t="s">
-        <v>131</v>
-      </c>
       <c r="AC26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE26" s="10" t="s">
+      <c r="AE26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF26" t="s">
         <v>144</v>
       </c>
-      <c r="AF26" t="s">
-        <v>131</v>
-      </c>
       <c r="AG26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH26" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI26" s="10" t="s">
+      <c r="AI26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>146</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL26" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AM26" t="s">
         <v>148</v>
       </c>
-      <c r="AL26" t="str">
+      <c r="AN26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO26" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.710643, 33.766452], SICCode: 'SIC220300', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN26" t="s">
+      <c r="AP26" t="s">
         <v>150</v>
       </c>
-      <c r="AO26" s="3" t="s">
+      <c r="AQ26" t="s">
         <v>151</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AR26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AS26" t="s">
         <v>153</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AT26" t="s">
         <v>154</v>
       </c>
+      <c r="AU26" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:47">
       <c r="A27" s="2">
         <v>118.720643</v>
       </c>
@@ -8104,111 +8183,114 @@
       <c r="I27" t="s">
         <v>132</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>133</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>134</v>
       </c>
-      <c r="L27" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" t="s">
-        <v>131</v>
-      </c>
       <c r="N27" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="O27" t="s">
-        <v>131</v>
-      </c>
       <c r="P27" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q27" t="s">
         <v>137</v>
       </c>
-      <c r="Q27" t="s">
-        <v>134</v>
-      </c>
-      <c r="R27" s="10" t="s">
+      <c r="R27" t="s">
+        <v>131</v>
+      </c>
+      <c r="S27" t="s">
         <v>138</v>
       </c>
-      <c r="S27" t="s">
-        <v>179</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U27" t="s">
-        <v>131</v>
+      <c r="T27" t="s">
+        <v>135</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="V27" t="s">
-        <v>140</v>
-      </c>
-      <c r="W27" t="s">
-        <v>134</v>
+        <v>180</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="X27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y27" t="s">
         <v>141</v>
       </c>
       <c r="Z27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB27" t="s">
         <v>142</v>
       </c>
-      <c r="AB27" t="s">
-        <v>131</v>
-      </c>
       <c r="AC27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AD27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE27" s="10" t="s">
+      <c r="AE27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF27" t="s">
         <v>144</v>
       </c>
-      <c r="AF27" t="s">
-        <v>131</v>
-      </c>
       <c r="AG27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH27" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AH27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI27" s="10" t="s">
+      <c r="AI27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>146</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AM27" t="s">
         <v>148</v>
       </c>
-      <c r="AL27" t="str">
+      <c r="AN27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO27" t="str">
         <f t="shared" si="4"/>
         <v>{ position: [118.710243, 33.766052], SICCode: 'SIC220301', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
       </c>
-      <c r="AM27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN27" t="s">
+      <c r="AP27" t="s">
         <v>150</v>
       </c>
-      <c r="AO27" s="3" t="s">
+      <c r="AQ27" t="s">
         <v>151</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AR27" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AS27" t="s">
         <v>153</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AT27" t="s">
         <v>154</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/src/views/map/components/transmission-line/components/对照表.xlsx
+++ b/src/views/map/components/transmission-line/components/对照表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="377">
   <si>
     <t>序号</t>
   </si>
@@ -399,6 +399,9 @@
     <t>合并</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>设备主人</t>
   </si>
   <si>
@@ -408,6 +411,24 @@
     <t>备注</t>
   </si>
   <si>
+    <t>登记时间</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>删除时间</t>
+  </si>
+  <si>
     <t>标志英文名</t>
   </si>
   <si>
@@ -423,12 +444,18 @@
     <t xml:space="preserve">{ </t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>'1'</t>
+  </si>
+  <si>
     <t>position</t>
   </si>
   <si>
-    <t xml:space="preserve">: </t>
-  </si>
-  <si>
     <t>[</t>
   </si>
   <si>
@@ -465,10 +492,46 @@
     <t>'备注'</t>
   </si>
   <si>
-    <t xml:space="preserve"> }</t>
-  </si>
-  <si>
-    <t>},</t>
+    <t>registerTime</t>
+  </si>
+  <si>
+    <t>'2019-01-25 09:23:01'</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:01'</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:01'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> }, </t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:01'</t>
+  </si>
+  <si>
+    <t>modifyTime</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:01'</t>
+  </si>
+  <si>
+    <t>deleteTime</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:01'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> },</t>
   </si>
   <si>
     <t>enName</t>
@@ -489,79 +552,604 @@
     <t>draggable</t>
   </si>
   <si>
+    <t>'2'</t>
+  </si>
+  <si>
     <t>SIC110402</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:02'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:02'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:02'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:02'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:02'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:02'</t>
+  </si>
+  <si>
+    <t>'3'</t>
+  </si>
+  <si>
     <t>SIC110403</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:03'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:03'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:03'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:03'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:03'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:03'</t>
+  </si>
+  <si>
+    <t>'4'</t>
+  </si>
+  <si>
     <t>SIC110404</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:04'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:04'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:04'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:04'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:04'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:04'</t>
+  </si>
+  <si>
+    <t>'5'</t>
+  </si>
+  <si>
     <t>SIC110405</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:05'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:05'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:05'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:05'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:05'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:05'</t>
+  </si>
+  <si>
+    <t>'6'</t>
+  </si>
+  <si>
     <t>SIC110406</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:06'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:06'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:06'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:06'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:06'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:06'</t>
+  </si>
+  <si>
+    <t>'7'</t>
+  </si>
+  <si>
     <t>SIC120100</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:07'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:07'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:07'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:07'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:07'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:07'</t>
+  </si>
+  <si>
+    <t>'8'</t>
+  </si>
+  <si>
     <t>SIC120101</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:08'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:08'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:08'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:08'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:08'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:08'</t>
+  </si>
+  <si>
+    <t>'9'</t>
+  </si>
+  <si>
     <t>SIC120102</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:09'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:09'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:09'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:09'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:09'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:09'</t>
+  </si>
+  <si>
+    <t>'10'</t>
+  </si>
+  <si>
     <t>SIC120103</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:10'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:10'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:10'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:10'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:10'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:10'</t>
+  </si>
+  <si>
+    <t>'11'</t>
+  </si>
+  <si>
     <t>SIC120104</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:11'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:11'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:11'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:11'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:11'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:11'</t>
+  </si>
+  <si>
+    <t>'12'</t>
+  </si>
+  <si>
     <t>SIC210100</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:12'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:12'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:12'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:12'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:12'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:12'</t>
+  </si>
+  <si>
+    <t>'13'</t>
+  </si>
+  <si>
     <t>SIC210101</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:13'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:13'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:13'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:13'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:13'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:13'</t>
+  </si>
+  <si>
+    <t>'14'</t>
+  </si>
+  <si>
     <t>SIC210202</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:14'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:14'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:14'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:14'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:14'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:14'</t>
+  </si>
+  <si>
+    <t>'15'</t>
+  </si>
+  <si>
     <t>SIC210303</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:15'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:15'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:15'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:15'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:15'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:15'</t>
+  </si>
+  <si>
+    <t>'16'</t>
+  </si>
+  <si>
     <t>SIC210404</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:16'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:16'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:16'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:16'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:16'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:16'</t>
+  </si>
+  <si>
+    <t>'17'</t>
+  </si>
+  <si>
     <t>SIC220100</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:17'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:17'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:17'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:17'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:17'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:17'</t>
+  </si>
+  <si>
+    <t>'18'</t>
+  </si>
+  <si>
     <t>SIC220101</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:18'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:18'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:18'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:18'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:18'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:18'</t>
+  </si>
+  <si>
+    <t>'19'</t>
+  </si>
+  <si>
     <t>SIC220102</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:19'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:19'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:19'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:19'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:19'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:19'</t>
+  </si>
+  <si>
+    <t>'20'</t>
+  </si>
+  <si>
     <t>SIC220103</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:20'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:20'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:20'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:20'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:20'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:20'</t>
+  </si>
+  <si>
+    <t>'21'</t>
+  </si>
+  <si>
     <t>SIC220200</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:21'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:21'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:21'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:21'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:21'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:21'</t>
+  </si>
+  <si>
+    <t>'22'</t>
+  </si>
+  <si>
     <t>SIC220201</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:22'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:22'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:22'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:22'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:22'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:22'</t>
+  </si>
+  <si>
+    <t>'23'</t>
+  </si>
+  <si>
     <t>SIC220202</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:23'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:23'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:23'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:23'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:23'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:23'</t>
+  </si>
+  <si>
+    <t>'24'</t>
+  </si>
+  <si>
     <t>SIC220203</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:24'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:24'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:24'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:24'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:24'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:24'</t>
+  </si>
+  <si>
+    <t>'25'</t>
+  </si>
+  <si>
     <t>SIC220300</t>
   </si>
   <si>
+    <t>'2019-01-25 09:23:25'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:25'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:25'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:25'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:25'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:25'</t>
+  </si>
+  <si>
+    <t>'26'</t>
+  </si>
+  <si>
     <t>SIC220301</t>
+  </si>
+  <si>
+    <t>'2019-01-25 09:23:26'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 10:23:26'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 18:23:26'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 08:23:26'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 13:23:26'</t>
+  </si>
+  <si>
+    <t>'2019-01-25 15:23:26'</t>
   </si>
 </sst>
 </file>
@@ -569,10 +1157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -604,23 +1192,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,23 +1222,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,8 +1253,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -681,23 +1300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -712,23 +1316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,7 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +1350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +1368,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,133 +1440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +1459,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,15 +1556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -988,21 +1567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,129 +1620,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,19 +1775,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1558,7 +2146,7 @@
   <sheetPr/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="I9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -4519,10 +5107,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AU27"/>
+  <dimension ref="A1:BV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4533,36 +5121,59 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="10" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="3.5" customWidth="1"/>
-    <col min="14" max="18" width="3.75" customWidth="1"/>
-    <col min="20" max="21" width="3.75" customWidth="1"/>
-    <col min="22" max="22" width="12.25" customWidth="1"/>
-    <col min="23" max="23" width="3.625" customWidth="1"/>
-    <col min="24" max="24" width="3.75" customWidth="1"/>
-    <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="26" width="3.75" customWidth="1"/>
-    <col min="27" max="27" width="3.5" customWidth="1"/>
-    <col min="28" max="28" width="15.5" customWidth="1"/>
-    <col min="29" max="29" width="3.75" customWidth="1"/>
-    <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="3.75" customWidth="1"/>
+    <col min="12" max="16" width="3.5" customWidth="1"/>
+    <col min="18" max="22" width="3.75" customWidth="1"/>
+    <col min="24" max="25" width="3.75" customWidth="1"/>
+    <col min="26" max="26" width="12.25" customWidth="1"/>
+    <col min="27" max="27" width="3.625" customWidth="1"/>
+    <col min="28" max="28" width="3.75" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="3.75" customWidth="1"/>
+    <col min="31" max="31" width="3.5" customWidth="1"/>
+    <col min="32" max="32" width="15.5" customWidth="1"/>
     <col min="33" max="33" width="3.75" customWidth="1"/>
-    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="34" max="34" width="8" customWidth="1"/>
     <col min="35" max="35" width="3.75" customWidth="1"/>
     <col min="37" max="37" width="3.75" customWidth="1"/>
-    <col min="38" max="38" width="7.625" customWidth="1"/>
+    <col min="38" max="38" width="12" customWidth="1"/>
     <col min="39" max="39" width="3.75" customWidth="1"/>
-    <col min="40" max="40" width="4.875" customWidth="1"/>
-    <col min="41" max="41" width="112.75" customWidth="1"/>
-    <col min="42" max="42" width="13.5" customWidth="1"/>
-    <col min="43" max="43" width="12.375" customWidth="1"/>
-    <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="47" max="47" width="11.75" customWidth="1"/>
+    <col min="41" max="41" width="3.75" customWidth="1"/>
+    <col min="42" max="43" width="7.625" customWidth="1"/>
+    <col min="44" max="44" width="13.25" customWidth="1"/>
+    <col min="45" max="45" width="3.125" customWidth="1"/>
+    <col min="46" max="46" width="19.875" customWidth="1"/>
+    <col min="47" max="47" width="3.875" customWidth="1"/>
+    <col min="48" max="48" width="9.625" customWidth="1"/>
+    <col min="49" max="49" width="3.125" customWidth="1"/>
+    <col min="50" max="50" width="19.875" customWidth="1"/>
+    <col min="51" max="51" width="3.875" customWidth="1"/>
+    <col min="52" max="52" width="9.375" customWidth="1"/>
+    <col min="53" max="53" width="3.125" customWidth="1"/>
+    <col min="54" max="54" width="19.875" customWidth="1"/>
+    <col min="55" max="55" width="3.75" customWidth="1"/>
+    <col min="56" max="56" width="12.125" customWidth="1"/>
+    <col min="57" max="57" width="3.125" customWidth="1"/>
+    <col min="58" max="58" width="19.875" customWidth="1"/>
+    <col min="59" max="59" width="3.875" customWidth="1"/>
+    <col min="60" max="60" width="12.375" customWidth="1"/>
+    <col min="61" max="61" width="3.125" customWidth="1"/>
+    <col min="62" max="62" width="19.875" customWidth="1"/>
+    <col min="63" max="63" width="3.875" customWidth="1"/>
+    <col min="64" max="64" width="12.375" customWidth="1"/>
+    <col min="65" max="65" width="3.125" customWidth="1"/>
+    <col min="66" max="66" width="19.875" customWidth="1"/>
+    <col min="67" max="67" width="4.875" customWidth="1"/>
+    <col min="68" max="68" width="232.125" customWidth="1"/>
+    <col min="69" max="69" width="13.5" customWidth="1"/>
+    <col min="70" max="70" width="12.375" customWidth="1"/>
+    <col min="71" max="71" width="16" customWidth="1"/>
+    <col min="74" max="74" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:70">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -4582,7 +5193,7 @@
       <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="J1" t="s">
         <v>126</v>
       </c>
       <c r="AF1" t="s">
@@ -4591,14 +5202,35 @@
       <c r="AJ1" t="s">
         <v>128</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AN1" t="s">
         <v>129</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>130</v>
       </c>
+      <c r="AV1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:74">
       <c r="A2" s="2">
         <v>118.720643</v>
       </c>
@@ -4617,7 +5249,7 @@
         <v>118.720243</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G2">
         <f>B2-D2</f>
@@ -4628,122 +5260,203 @@
         <v>118.720243, 33.776052</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J2">
-        <v>20190120</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T2" t="s">
-        <v>135</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>146</v>
       </c>
       <c r="V2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE2" t="s">
         <v>140</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>131</v>
-      </c>
       <c r="AF2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO2" t="str">
-        <f>L2&amp;M2&amp;N2&amp;O2&amp;H2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;U2&amp;V2&amp;W2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2&amp;AN2</f>
-        <v>{ position: [118.720243, 33.776052], SICCode: 'SIC110401', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>150</v>
+        <v>155</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="AQ2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>157</v>
       </c>
       <c r="AS2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="AU2" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP2" t="str">
+        <f>L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;H2&amp;U2&amp;V2&amp;W2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2&amp;AN2&amp;AO2&amp;AP2&amp;AQ2&amp;AR2&amp;AS2&amp;AT2&amp;AU2&amp;AV2&amp;AW2&amp;AX2&amp;AY2&amp;AZ2&amp;BA2&amp;BB2&amp;BC2&amp;BD2&amp;BE2&amp;BF2&amp;BG2&amp;BH2&amp;BI2&amp;BJ2&amp;BK2&amp;BL2&amp;BM2&amp;BN2&amp;BO2</f>
+        <v>{ id: '1', position: [118.720243, 33.776052], SICCode: 'SIC110401', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:01', startTime: '2019-01-25 10:23:01', endTime: '2019-01-25 18:23:01' }, createTime: '2019-01-25 08:23:01', modifyTime: '2019-01-25 13:23:01', deleteTime: '2019-01-25 15:23:01' },</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:74">
       <c r="A3" s="2">
         <v>118.720643</v>
       </c>
@@ -4762,7 +5475,7 @@
         <v>118.719843</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G27" si="2">B3-D3</f>
@@ -4773,119 +5486,203 @@
         <v>118.719843, 33.775652</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U3" t="s">
+        <v>146</v>
       </c>
       <c r="V3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO3" t="str">
-        <f t="shared" ref="AO3:AO27" si="4">L3&amp;M3&amp;N3&amp;O3&amp;H3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>{ position: [118.719843, 33.775652], SICCode: 'SIC110402', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>150</v>
-      </c>
       <c r="AQ3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>157</v>
       </c>
       <c r="AS3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="AU3" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP3" t="str">
+        <f t="shared" ref="BP3:BP28" si="4">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;H3&amp;U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3&amp;AO3&amp;AP3&amp;AQ3&amp;AR3&amp;AS3&amp;AT3&amp;AU3&amp;AV3&amp;AW3&amp;AX3&amp;AY3&amp;AZ3&amp;BA3&amp;BB3&amp;BC3&amp;BD3&amp;BE3&amp;BF3&amp;BG3&amp;BH3&amp;BI3&amp;BJ3&amp;BK3&amp;BL3&amp;BM3&amp;BN3&amp;BO3</f>
+        <v>{ id: '2', position: [118.719843, 33.775652], SICCode: 'SIC110402', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:02', startTime: '2019-01-25 10:23:02', endTime: '2019-01-25 18:23:02' }, createTime: '2019-01-25 08:23:02', modifyTime: '2019-01-25 13:23:02', deleteTime: '2019-01-25 15:23:02' },</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:74">
       <c r="A4" s="2">
         <v>118.720643</v>
       </c>
@@ -4904,7 +5701,7 @@
         <v>118.719443</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
@@ -4915,119 +5712,203 @@
         <v>118.719443, 33.775252</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T4" t="s">
-        <v>135</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U4" t="s">
+        <v>146</v>
       </c>
       <c r="V4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR4" t="s">
         <v>157</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO4" t="str">
+      <c r="AS4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP4" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.719443, 33.775252], SICCode: 'SIC110403', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>155</v>
+        <v>{ id: '3', position: [118.719443, 33.775252], SICCode: 'SIC110403', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:03', startTime: '2019-01-25 10:23:03', endTime: '2019-01-25 18:23:03' }, createTime: '2019-01-25 08:23:03', modifyTime: '2019-01-25 13:23:03', deleteTime: '2019-01-25 15:23:03' },</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:74">
       <c r="A5" s="2">
         <v>118.720643</v>
       </c>
@@ -5046,7 +5927,7 @@
         <v>118.719043</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -5057,119 +5938,203 @@
         <v>118.719043, 33.774852</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U5" t="s">
+        <v>146</v>
       </c>
       <c r="V5" t="s">
-        <v>158</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W5" t="s">
+        <v>147</v>
       </c>
       <c r="X5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>133</v>
+        <v>194</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>142</v>
       </c>
       <c r="AE5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO5" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP5" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.719043, 33.774852], SICCode: 'SIC110404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>155</v>
+        <v>{ id: '4', position: [118.719043, 33.774852], SICCode: 'SIC110404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:04', startTime: '2019-01-25 10:23:04', endTime: '2019-01-25 18:23:04' }, createTime: '2019-01-25 08:23:04', modifyTime: '2019-01-25 13:23:04', deleteTime: '2019-01-25 15:23:04' },</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:74">
       <c r="A6" s="2">
         <v>118.720643</v>
       </c>
@@ -5188,7 +6153,7 @@
         <v>118.718643</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -5199,119 +6164,203 @@
         <v>118.718643, 33.774452</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R6" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T6" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U6" t="s">
+        <v>146</v>
       </c>
       <c r="V6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W6" t="s">
+        <v>147</v>
+      </c>
+      <c r="X6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV6" t="s">
         <v>159</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO6" t="str">
+      <c r="AW6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP6" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.718643, 33.774452], SICCode: 'SIC110405', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>155</v>
+        <v>{ id: '5', position: [118.718643, 33.774452], SICCode: 'SIC110405', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:05', startTime: '2019-01-25 10:23:05', endTime: '2019-01-25 18:23:05' }, createTime: '2019-01-25 08:23:05', modifyTime: '2019-01-25 13:23:05', deleteTime: '2019-01-25 15:23:05' },</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:74">
       <c r="A7" s="2">
         <v>118.720643</v>
       </c>
@@ -5330,7 +6379,7 @@
         <v>118.718243</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -5341,119 +6390,203 @@
         <v>118.718243, 33.774052</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T7" t="s">
-        <v>135</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U7" t="s">
+        <v>146</v>
       </c>
       <c r="V7" t="s">
-        <v>160</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W7" t="s">
+        <v>147</v>
       </c>
       <c r="X7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>133</v>
+        <v>210</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>142</v>
       </c>
       <c r="AE7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO7" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB7" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF7" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP7" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.718243, 33.774052], SICCode: 'SIC110406', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>155</v>
+        <v>{ id: '6', position: [118.718243, 33.774052], SICCode: 'SIC110406', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:06', startTime: '2019-01-25 10:23:06', endTime: '2019-01-25 18:23:06' }, createTime: '2019-01-25 08:23:06', modifyTime: '2019-01-25 13:23:06', deleteTime: '2019-01-25 15:23:06' },</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:74">
       <c r="A8" s="2">
         <v>118.720643</v>
       </c>
@@ -5472,7 +6605,7 @@
         <v>118.717843</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -5483,119 +6616,203 @@
         <v>118.717843, 33.773652</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R8" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T8" t="s">
-        <v>135</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U8" t="s">
+        <v>146</v>
       </c>
       <c r="V8" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT8" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX8" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>161</v>
       </c>
-      <c r="W8" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO8" t="str">
+      <c r="BA8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF8" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP8" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.717843, 33.773652], SICCode: 'SIC120100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>155</v>
+        <v>{ id: '7', position: [118.717843, 33.773652], SICCode: 'SIC120100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:07', startTime: '2019-01-25 10:23:07', endTime: '2019-01-25 18:23:07' }, createTime: '2019-01-25 08:23:07', modifyTime: '2019-01-25 13:23:07', deleteTime: '2019-01-25 15:23:07' },</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:74">
       <c r="A9" s="2">
         <v>118.720643</v>
       </c>
@@ -5614,7 +6831,7 @@
         <v>118.717443</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -5625,119 +6842,203 @@
         <v>118.717443, 33.773252</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
-      </c>
-      <c r="O9" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T9" t="s">
-        <v>135</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U9" t="s">
+        <v>146</v>
       </c>
       <c r="V9" t="s">
-        <v>162</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W9" t="s">
+        <v>147</v>
       </c>
       <c r="X9" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>133</v>
+        <v>226</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>142</v>
       </c>
       <c r="AE9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO9" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT9" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX9" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB9" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP9" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.717443, 33.773252], SICCode: 'SIC120101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>155</v>
+        <v>{ id: '8', position: [118.717443, 33.773252], SICCode: 'SIC120101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:08', startTime: '2019-01-25 10:23:08', endTime: '2019-01-25 18:23:08' }, createTime: '2019-01-25 08:23:08', modifyTime: '2019-01-25 13:23:08', deleteTime: '2019-01-25 15:23:08' },</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:74">
       <c r="A10" s="2">
         <v>118.720643</v>
       </c>
@@ -5756,7 +7057,7 @@
         <v>118.717043</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -5767,119 +7068,203 @@
         <v>118.717043, 33.772852</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T10" t="s">
-        <v>135</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U10" t="s">
+        <v>146</v>
       </c>
       <c r="V10" t="s">
+        <v>138</v>
+      </c>
+      <c r="W10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC10" t="s">
         <v>163</v>
       </c>
-      <c r="W10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD10" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO10" t="str">
+      <c r="BD10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF10" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP10" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.717043, 33.772852], SICCode: 'SIC120102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>155</v>
+        <v>{ id: '9', position: [118.717043, 33.772852], SICCode: 'SIC120102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:09', startTime: '2019-01-25 10:23:09', endTime: '2019-01-25 18:23:09' }, createTime: '2019-01-25 08:23:09', modifyTime: '2019-01-25 13:23:09', deleteTime: '2019-01-25 15:23:09' },</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:74">
       <c r="A11" s="2">
         <v>118.720643</v>
       </c>
@@ -5898,7 +7283,7 @@
         <v>118.716643</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -5909,119 +7294,203 @@
         <v>118.716643, 33.772452</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
-      </c>
-      <c r="O11" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R11" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S11" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U11" t="s">
+        <v>146</v>
       </c>
       <c r="V11" t="s">
+        <v>138</v>
+      </c>
+      <c r="W11" t="s">
+        <v>147</v>
+      </c>
+      <c r="X11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT11" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX11" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB11" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD11" t="s">
         <v>164</v>
       </c>
-      <c r="W11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD11" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH11" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO11" t="str">
+      <c r="BE11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF11" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ11" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN11" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP11" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.716643, 33.772452], SICCode: 'SIC120103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>155</v>
+        <v>{ id: '10', position: [118.716643, 33.772452], SICCode: 'SIC120103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:10', startTime: '2019-01-25 10:23:10', endTime: '2019-01-25 18:23:10' }, createTime: '2019-01-25 08:23:10', modifyTime: '2019-01-25 13:23:10', deleteTime: '2019-01-25 15:23:10' },</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:74">
       <c r="A12" s="2">
         <v>118.720643</v>
       </c>
@@ -6040,7 +7509,7 @@
         <v>118.716243</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -6051,119 +7520,203 @@
         <v>118.716243, 33.772052</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
-      </c>
-      <c r="O12" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T12" t="s">
-        <v>135</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U12" t="s">
+        <v>146</v>
       </c>
       <c r="V12" t="s">
-        <v>165</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W12" t="s">
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>133</v>
+        <v>250</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>142</v>
       </c>
       <c r="AE12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO12" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX12" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB12" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ12" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN12" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP12" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.716243, 33.772052], SICCode: 'SIC120104', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>155</v>
+        <v>{ id: '11', position: [118.716243, 33.772052], SICCode: 'SIC120104', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:11', startTime: '2019-01-25 10:23:11', endTime: '2019-01-25 18:23:11' }, createTime: '2019-01-25 08:23:11', modifyTime: '2019-01-25 13:23:11', deleteTime: '2019-01-25 15:23:11' },</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:74">
       <c r="A13" s="2">
         <v>118.720643</v>
       </c>
@@ -6182,7 +7735,7 @@
         <v>118.715843</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -6193,119 +7746,203 @@
         <v>118.715843, 33.771652</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T13" t="s">
-        <v>135</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U13" t="s">
+        <v>146</v>
       </c>
       <c r="V13" t="s">
+        <v>138</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT13" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX13" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB13" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF13" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH13" t="s">
         <v>166</v>
       </c>
-      <c r="W13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO13" t="str">
+      <c r="BI13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP13" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.715843, 33.771652], SICCode: 'SIC210100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>155</v>
+        <v>{ id: '12', position: [118.715843, 33.771652], SICCode: 'SIC210100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:12', startTime: '2019-01-25 10:23:12', endTime: '2019-01-25 18:23:12' }, createTime: '2019-01-25 08:23:12', modifyTime: '2019-01-25 13:23:12', deleteTime: '2019-01-25 15:23:12' },</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:74">
       <c r="A14" s="2">
         <v>118.720643</v>
       </c>
@@ -6324,7 +7961,7 @@
         <v>118.715443</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -6335,119 +7972,203 @@
         <v>118.715443, 33.771252</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q14" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R14" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T14" t="s">
-        <v>135</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U14" t="s">
+        <v>146</v>
       </c>
       <c r="V14" t="s">
-        <v>167</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>133</v>
+        <v>266</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC14" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>142</v>
       </c>
       <c r="AE14" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ14" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL14" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO14" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB14" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF14" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ14" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN14" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP14" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.715443, 33.771252], SICCode: 'SIC210101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>155</v>
+        <v>{ id: '13', position: [118.715443, 33.771252], SICCode: 'SIC210101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:13', startTime: '2019-01-25 10:23:13', endTime: '2019-01-25 18:23:13' }, createTime: '2019-01-25 08:23:13', modifyTime: '2019-01-25 13:23:13', deleteTime: '2019-01-25 15:23:13' },</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:74">
       <c r="A15" s="2">
         <v>118.720643</v>
       </c>
@@ -6466,7 +8187,7 @@
         <v>118.715043</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -6477,119 +8198,203 @@
         <v>118.715043, 33.770852</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T15" t="s">
-        <v>135</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U15" t="s">
+        <v>146</v>
       </c>
       <c r="V15" t="s">
+        <v>138</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT15" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX15" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF15" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ15" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL15" t="s">
         <v>168</v>
       </c>
-      <c r="W15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO15" t="str">
+      <c r="BM15" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN15" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP15" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.715043, 33.770852], SICCode: 'SIC210202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>155</v>
+        <v>{ id: '14', position: [118.715043, 33.770852], SICCode: 'SIC210202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:14', startTime: '2019-01-25 10:23:14', endTime: '2019-01-25 18:23:14' }, createTime: '2019-01-25 08:23:14', modifyTime: '2019-01-25 13:23:14', deleteTime: '2019-01-25 15:23:14' },</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:74">
       <c r="A16" s="2">
         <v>118.720643</v>
       </c>
@@ -6608,7 +8413,7 @@
         <v>118.714643</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -6619,119 +8424,203 @@
         <v>118.714643, 33.770452</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
-      </c>
-      <c r="O16" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R16" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T16" t="s">
-        <v>135</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U16" t="s">
+        <v>146</v>
       </c>
       <c r="V16" t="s">
-        <v>169</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W16" t="s">
+        <v>147</v>
       </c>
       <c r="X16" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>133</v>
+        <v>282</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD16" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>142</v>
       </c>
       <c r="AE16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL16" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO16" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT16" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX16" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB16" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF16" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ16" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN16" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP16" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.714643, 33.770452], SICCode: 'SIC210303', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>155</v>
+        <v>{ id: '15', position: [118.714643, 33.770452], SICCode: 'SIC210303', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:15', startTime: '2019-01-25 10:23:15', endTime: '2019-01-25 18:23:15' }, createTime: '2019-01-25 08:23:15', modifyTime: '2019-01-25 13:23:15', deleteTime: '2019-01-25 15:23:15' },</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:74">
       <c r="A17" s="2">
         <v>118.720643</v>
       </c>
@@ -6750,7 +8639,7 @@
         <v>118.714243</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -6761,119 +8650,203 @@
         <v>118.714243, 33.770052</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R17" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T17" t="s">
-        <v>135</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U17" t="s">
+        <v>146</v>
       </c>
       <c r="V17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL17" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT17" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX17" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB17" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF17" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ17" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN17" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="BO17" t="s">
         <v>170</v>
       </c>
-      <c r="W17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X17" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL17" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO17" t="str">
+      <c r="BP17" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.714243, 33.770052], SICCode: 'SIC210404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>155</v>
+        <v>{ id: '16', position: [118.714243, 33.770052], SICCode: 'SIC210404', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:16', startTime: '2019-01-25 10:23:16', endTime: '2019-01-25 18:23:16' }, createTime: '2019-01-25 08:23:16', modifyTime: '2019-01-25 13:23:16', deleteTime: '2019-01-25 15:23:16' },</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:74">
       <c r="A18" s="2">
         <v>118.720643</v>
       </c>
@@ -6892,7 +8865,7 @@
         <v>118.713843</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -6903,119 +8876,203 @@
         <v>118.713843, 33.769652</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q18" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R18" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T18" t="s">
-        <v>135</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U18" t="s">
+        <v>146</v>
       </c>
       <c r="V18" t="s">
+        <v>138</v>
+      </c>
+      <c r="W18" t="s">
+        <v>147</v>
+      </c>
+      <c r="X18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT18" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX18" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB18" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF18" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ18" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN18" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP18" t="str">
+        <f t="shared" si="4"/>
+        <v>{ id: '17', position: [118.713843, 33.769652], SICCode: 'SIC220100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:17', startTime: '2019-01-25 10:23:17', endTime: '2019-01-25 18:23:17' }, createTime: '2019-01-25 08:23:17', modifyTime: '2019-01-25 13:23:17', deleteTime: '2019-01-25 15:23:17' },</v>
+      </c>
+      <c r="BQ18" t="s">
         <v>171</v>
       </c>
-      <c r="W18" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X18" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD18" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH18" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO18" t="str">
-        <f t="shared" si="4"/>
-        <v>{ position: [118.713843, 33.769652], SICCode: 'SIC220100', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>155</v>
+      <c r="BR18" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:74">
       <c r="A19" s="2">
         <v>118.720643</v>
       </c>
@@ -7034,7 +9091,7 @@
         <v>118.713443</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -7045,119 +9102,203 @@
         <v>118.713443, 33.769252</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
-      </c>
-      <c r="O19" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R19" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T19" t="s">
-        <v>135</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U19" t="s">
+        <v>146</v>
       </c>
       <c r="V19" t="s">
+        <v>138</v>
+      </c>
+      <c r="W19" t="s">
+        <v>147</v>
+      </c>
+      <c r="X19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT19" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX19" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB19" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF19" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ19" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN19" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP19" t="str">
+        <f t="shared" si="4"/>
+        <v>{ id: '18', position: [118.713443, 33.769252], SICCode: 'SIC220101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:18', startTime: '2019-01-25 10:23:18', endTime: '2019-01-25 18:23:18' }, createTime: '2019-01-25 08:23:18', modifyTime: '2019-01-25 13:23:18', deleteTime: '2019-01-25 15:23:18' },</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR19" t="s">
         <v>172</v>
       </c>
-      <c r="W19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL19" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO19" t="str">
-        <f t="shared" si="4"/>
-        <v>{ position: [118.713443, 33.769252], SICCode: 'SIC220101', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>155</v>
+      <c r="BS19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:74">
       <c r="A20" s="2">
         <v>118.720643</v>
       </c>
@@ -7176,7 +9317,7 @@
         <v>118.713043</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -7187,119 +9328,203 @@
         <v>118.713043, 33.768852</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R20" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T20" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U20" t="s">
+        <v>146</v>
       </c>
       <c r="V20" t="s">
+        <v>138</v>
+      </c>
+      <c r="W20" t="s">
+        <v>147</v>
+      </c>
+      <c r="X20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT20" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX20" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB20" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF20" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ20" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN20" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP20" t="str">
+        <f t="shared" si="4"/>
+        <v>{ id: '19', position: [118.713043, 33.768852], SICCode: 'SIC220102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:19', startTime: '2019-01-25 10:23:19', endTime: '2019-01-25 18:23:19' }, createTime: '2019-01-25 08:23:19', modifyTime: '2019-01-25 13:23:19', deleteTime: '2019-01-25 15:23:19' },</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W20" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X20" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL20" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO20" t="str">
-        <f t="shared" si="4"/>
-        <v>{ position: [118.713043, 33.768852], SICCode: 'SIC220102', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>155</v>
+      <c r="BT20" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:74">
       <c r="A21" s="2">
         <v>118.720643</v>
       </c>
@@ -7318,7 +9543,7 @@
         <v>118.712643</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -7329,119 +9554,203 @@
         <v>118.712643, 33.768452</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N21" t="s">
-        <v>135</v>
-      </c>
-      <c r="O21" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>321</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R21" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S21" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T21" t="s">
-        <v>135</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U21" t="s">
+        <v>146</v>
       </c>
       <c r="V21" t="s">
+        <v>138</v>
+      </c>
+      <c r="W21" t="s">
+        <v>147</v>
+      </c>
+      <c r="X21" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT21" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX21" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB21" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF21" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ21" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN21" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP21" t="str">
+        <f t="shared" si="4"/>
+        <v>{ id: '20', position: [118.712643, 33.768452], SICCode: 'SIC220103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:20', startTime: '2019-01-25 10:23:20', endTime: '2019-01-25 18:23:20' }, createTime: '2019-01-25 08:23:20', modifyTime: '2019-01-25 13:23:20', deleteTime: '2019-01-25 15:23:20' },</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT21" t="s">
         <v>174</v>
       </c>
-      <c r="W21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X21" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH21" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL21" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO21" t="str">
-        <f t="shared" si="4"/>
-        <v>{ position: [118.712643, 33.768452], SICCode: 'SIC220103', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>155</v>
+      <c r="BU21" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:74">
       <c r="A22" s="2">
         <v>118.720643</v>
       </c>
@@ -7460,7 +9769,7 @@
         <v>118.712243</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -7471,119 +9780,203 @@
         <v>118.712243, 33.768052</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N22" t="s">
-        <v>135</v>
-      </c>
-      <c r="O22" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q22" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R22" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S22" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T22" t="s">
-        <v>135</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U22" t="s">
+        <v>146</v>
       </c>
       <c r="V22" t="s">
+        <v>138</v>
+      </c>
+      <c r="W22" t="s">
+        <v>147</v>
+      </c>
+      <c r="X22" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT22" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX22" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB22" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF22" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ22" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN22" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP22" t="str">
+        <f t="shared" si="4"/>
+        <v>{ id: '21', position: [118.712243, 33.768052], SICCode: 'SIC220200', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:21', startTime: '2019-01-25 10:23:21', endTime: '2019-01-25 18:23:21' }, createTime: '2019-01-25 08:23:21', modifyTime: '2019-01-25 13:23:21', deleteTime: '2019-01-25 15:23:21' },</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU22" t="s">
         <v>175</v>
       </c>
-      <c r="W22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X22" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH22" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL22" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO22" t="str">
-        <f t="shared" si="4"/>
-        <v>{ position: [118.712243, 33.768052], SICCode: 'SIC220200', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>155</v>
+      <c r="BV22" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:74">
       <c r="A23" s="2">
         <v>118.720643</v>
       </c>
@@ -7602,7 +9995,7 @@
         <v>118.711843</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -7613,119 +10006,203 @@
         <v>118.711843, 33.767652</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
-      </c>
-      <c r="O23" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R23" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S23" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T23" t="s">
-        <v>135</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U23" t="s">
+        <v>146</v>
       </c>
       <c r="V23" t="s">
+        <v>138</v>
+      </c>
+      <c r="W23" t="s">
+        <v>147</v>
+      </c>
+      <c r="X23" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT23" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX23" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB23" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF23" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ23" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN23" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP23" t="str">
+        <f t="shared" si="4"/>
+        <v>{ id: '22', position: [118.711843, 33.767652], SICCode: 'SIC220201', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:22', startTime: '2019-01-25 10:23:22', endTime: '2019-01-25 18:23:22' }, createTime: '2019-01-25 08:23:22', modifyTime: '2019-01-25 13:23:22', deleteTime: '2019-01-25 15:23:22' },</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV23" t="s">
         <v>176</v>
       </c>
-      <c r="W23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X23" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD23" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL23" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO23" t="str">
-        <f t="shared" si="4"/>
-        <v>{ position: [118.711843, 33.767652], SICCode: 'SIC220201', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:74">
       <c r="A24" s="2">
         <v>118.720643</v>
       </c>
@@ -7744,7 +10221,7 @@
         <v>118.711443</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -7755,119 +10232,203 @@
         <v>118.711443, 33.767252</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N24" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q24" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R24" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S24" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T24" t="s">
-        <v>135</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U24" t="s">
+        <v>146</v>
       </c>
       <c r="V24" t="s">
-        <v>177</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W24" t="s">
+        <v>147</v>
       </c>
       <c r="X24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>133</v>
+        <v>346</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD24" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>142</v>
       </c>
       <c r="AE24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG24" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH24" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI24" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ24" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK24" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL24" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM24" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO24" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT24" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX24" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB24" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF24" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ24" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN24" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP24" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.711443, 33.767252], SICCode: 'SIC220202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>155</v>
+        <v>{ id: '23', position: [118.711443, 33.767252], SICCode: 'SIC220202', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:23', startTime: '2019-01-25 10:23:23', endTime: '2019-01-25 18:23:23' }, createTime: '2019-01-25 08:23:23', modifyTime: '2019-01-25 13:23:23', deleteTime: '2019-01-25 15:23:23' },</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:74">
       <c r="A25" s="2">
         <v>118.720643</v>
       </c>
@@ -7886,7 +10447,7 @@
         <v>118.711043</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -7897,119 +10458,203 @@
         <v>118.711043, 33.766852</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
-      </c>
-      <c r="O25" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R25" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S25" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T25" t="s">
-        <v>135</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U25" t="s">
+        <v>146</v>
       </c>
       <c r="V25" t="s">
-        <v>178</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W25" t="s">
+        <v>147</v>
       </c>
       <c r="X25" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>133</v>
+        <v>354</v>
+      </c>
+      <c r="AA25" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC25" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD25" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>142</v>
       </c>
       <c r="AE25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH25" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI25" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK25" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL25" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN25" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO25" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP25" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT25" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX25" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB25" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF25" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ25" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN25" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP25" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.711043, 33.766852], SICCode: 'SIC220203', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>155</v>
+        <v>{ id: '24', position: [118.711043, 33.766852], SICCode: 'SIC220203', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:24', startTime: '2019-01-25 10:23:24', endTime: '2019-01-25 18:23:24' }, createTime: '2019-01-25 08:23:24', modifyTime: '2019-01-25 13:23:24', deleteTime: '2019-01-25 15:23:24' },</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:74">
       <c r="A26" s="2">
         <v>118.720643</v>
       </c>
@@ -8028,7 +10673,7 @@
         <v>118.710643</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -8039,119 +10684,203 @@
         <v>118.710643, 33.766452</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M26" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N26" t="s">
-        <v>135</v>
-      </c>
-      <c r="O26" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q26" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R26" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T26" t="s">
-        <v>135</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U26" t="s">
+        <v>146</v>
       </c>
       <c r="V26" t="s">
-        <v>179</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W26" t="s">
+        <v>147</v>
       </c>
       <c r="X26" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>133</v>
+        <v>362</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD26" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>142</v>
       </c>
       <c r="AE26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF26" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG26" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH26" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ26" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL26" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM26" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN26" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO26" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT26" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF26" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ26" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN26" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP26" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.710643, 33.766452], SICCode: 'SIC220300', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>155</v>
+        <v>{ id: '25', position: [118.710643, 33.766452], SICCode: 'SIC220300', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:25', startTime: '2019-01-25 10:23:25', endTime: '2019-01-25 18:23:25' }, createTime: '2019-01-25 08:23:25', modifyTime: '2019-01-25 13:23:25', deleteTime: '2019-01-25 15:23:25' },</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:74">
       <c r="A27" s="2">
         <v>118.720643</v>
       </c>
@@ -8170,7 +10899,7 @@
         <v>118.710243</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -8181,116 +10910,206 @@
         <v>118.710243, 33.766052</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N27" t="s">
-        <v>135</v>
-      </c>
-      <c r="O27" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q27" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R27" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S27" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="T27" t="s">
-        <v>135</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="U27" t="s">
+        <v>146</v>
       </c>
       <c r="V27" t="s">
-        <v>180</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="W27" t="s">
+        <v>147</v>
       </c>
       <c r="X27" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="Z27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>133</v>
+        <v>370</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="AB27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD27" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>142</v>
       </c>
       <c r="AE27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF27" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG27" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AH27" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AI27" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AJ27" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AK27" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AL27" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AM27" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AN27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO27" t="str">
+        <v>155</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT27" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX27" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB27" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF27" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ27" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN27" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP27" t="str">
         <f t="shared" si="4"/>
-        <v>{ position: [118.710243, 33.766052], SICCode: 'SIC220301', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注' }},</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>155</v>
+        <v>{ id: '26', position: [118.710243, 33.766052], SICCode: 'SIC220301', extData: { DeviceOwner: 'syy', detail: '挖机施工', remark: '备注', registerTime: '2019-01-25 09:23:26', startTime: '2019-01-25 10:23:26', endTime: '2019-01-25 18:23:26' }, createTime: '2019-01-25 08:23:26', modifyTime: '2019-01-25 13:23:26', deleteTime: '2019-01-25 15:23:26' },</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="68:68">
+      <c r="BP28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
   </sheetData>
